--- a/base repeticao sem dados.xlsx
+++ b/base repeticao sem dados.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="456">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>Requisicao</t>
   </si>
@@ -43,6 +46,372 @@
     <t>Motivo</t>
   </si>
   <si>
+    <t>201410000313</t>
+  </si>
+  <si>
+    <t>201410000319</t>
+  </si>
+  <si>
+    <t>201410000350</t>
+  </si>
+  <si>
+    <t>201410000373</t>
+  </si>
+  <si>
+    <t>201410000395</t>
+  </si>
+  <si>
+    <t>201410000406</t>
+  </si>
+  <si>
+    <t>201410000388</t>
+  </si>
+  <si>
+    <t>201410000420</t>
+  </si>
+  <si>
+    <t>201410000435</t>
+  </si>
+  <si>
+    <t>201410000436</t>
+  </si>
+  <si>
+    <t>201410000478</t>
+  </si>
+  <si>
+    <t>201410000525</t>
+  </si>
+  <si>
+    <t>201410000526</t>
+  </si>
+  <si>
+    <t>201410000530</t>
+  </si>
+  <si>
+    <t>201410000536</t>
+  </si>
+  <si>
+    <t>201410000557</t>
+  </si>
+  <si>
+    <t>201410000627</t>
+  </si>
+  <si>
+    <t>201410000634</t>
+  </si>
+  <si>
+    <t>201410000688</t>
+  </si>
+  <si>
+    <t>201410000707</t>
+  </si>
+  <si>
+    <t>201410000718</t>
+  </si>
+  <si>
+    <t>201410000730</t>
+  </si>
+  <si>
+    <t>201410000753</t>
+  </si>
+  <si>
+    <t>201410000755</t>
+  </si>
+  <si>
+    <t>201410000765</t>
+  </si>
+  <si>
+    <t>201410000801</t>
+  </si>
+  <si>
+    <t>201410000832</t>
+  </si>
+  <si>
+    <t>201410000834</t>
+  </si>
+  <si>
+    <t>201410000838</t>
+  </si>
+  <si>
+    <t>201410000851</t>
+  </si>
+  <si>
+    <t>201410000869</t>
+  </si>
+  <si>
+    <t>201410000896</t>
+  </si>
+  <si>
+    <t>201410000934</t>
+  </si>
+  <si>
+    <t>201410000976</t>
+  </si>
+  <si>
+    <t>201410001005</t>
+  </si>
+  <si>
+    <t>201410001006</t>
+  </si>
+  <si>
+    <t>201410001008</t>
+  </si>
+  <si>
+    <t>201410001011</t>
+  </si>
+  <si>
+    <t>201410001033</t>
+  </si>
+  <si>
+    <t>201410001035</t>
+  </si>
+  <si>
+    <t>201410001049</t>
+  </si>
+  <si>
+    <t>201410001065</t>
+  </si>
+  <si>
+    <t>201410001114</t>
+  </si>
+  <si>
+    <t>201410001119</t>
+  </si>
+  <si>
+    <t>201410001121</t>
+  </si>
+  <si>
+    <t>201410001128</t>
+  </si>
+  <si>
+    <t>201410001132</t>
+  </si>
+  <si>
+    <t>201410001133</t>
+  </si>
+  <si>
+    <t>201410001134</t>
+  </si>
+  <si>
+    <t>201410001151</t>
+  </si>
+  <si>
+    <t>201410001154</t>
+  </si>
+  <si>
+    <t>201410001155</t>
+  </si>
+  <si>
+    <t>201410001158</t>
+  </si>
+  <si>
+    <t>201410001163</t>
+  </si>
+  <si>
+    <t>201410001172</t>
+  </si>
+  <si>
+    <t>201410001173</t>
+  </si>
+  <si>
+    <t>201410001183</t>
+  </si>
+  <si>
+    <t>201410001215</t>
+  </si>
+  <si>
+    <t>201410001222</t>
+  </si>
+  <si>
+    <t>201410001224</t>
+  </si>
+  <si>
+    <t>201410001253</t>
+  </si>
+  <si>
+    <t>201410001255</t>
+  </si>
+  <si>
+    <t>201410001259</t>
+  </si>
+  <si>
+    <t>201410001261</t>
+  </si>
+  <si>
+    <t>201410001263</t>
+  </si>
+  <si>
+    <t>201410001264</t>
+  </si>
+  <si>
+    <t>201410001265</t>
+  </si>
+  <si>
+    <t>201410001270</t>
+  </si>
+  <si>
+    <t>201410001272</t>
+  </si>
+  <si>
+    <t>201410001279</t>
+  </si>
+  <si>
+    <t>201410001280</t>
+  </si>
+  <si>
+    <t>201410001285</t>
+  </si>
+  <si>
+    <t>201410001291</t>
+  </si>
+  <si>
+    <t>201410001308</t>
+  </si>
+  <si>
+    <t>201410001310</t>
+  </si>
+  <si>
+    <t>201410001362</t>
+  </si>
+  <si>
+    <t>201410001402</t>
+  </si>
+  <si>
+    <t>201410001421</t>
+  </si>
+  <si>
+    <t>201410001424</t>
+  </si>
+  <si>
+    <t>201410001427</t>
+  </si>
+  <si>
+    <t>201410001434</t>
+  </si>
+  <si>
+    <t>201410001472</t>
+  </si>
+  <si>
+    <t>201410001483</t>
+  </si>
+  <si>
+    <t>201410001511</t>
+  </si>
+  <si>
+    <t>201410001524</t>
+  </si>
+  <si>
+    <t>201410001527</t>
+  </si>
+  <si>
+    <t>201410001540</t>
+  </si>
+  <si>
+    <t>201410001542</t>
+  </si>
+  <si>
+    <t>201410001553</t>
+  </si>
+  <si>
+    <t>201410001587</t>
+  </si>
+  <si>
+    <t>201410001589</t>
+  </si>
+  <si>
+    <t>201410001604</t>
+  </si>
+  <si>
+    <t>201410001642</t>
+  </si>
+  <si>
+    <t>201410001672</t>
+  </si>
+  <si>
+    <t>201410001701</t>
+  </si>
+  <si>
+    <t>201410001722</t>
+  </si>
+  <si>
+    <t>201410001724</t>
+  </si>
+  <si>
+    <t>201410001755</t>
+  </si>
+  <si>
+    <t>201410001759</t>
+  </si>
+  <si>
+    <t>201410001776</t>
+  </si>
+  <si>
+    <t>201410001777</t>
+  </si>
+  <si>
+    <t>201410001785</t>
+  </si>
+  <si>
+    <t>201410001815</t>
+  </si>
+  <si>
+    <t>201410001824</t>
+  </si>
+  <si>
+    <t>201410001830</t>
+  </si>
+  <si>
+    <t>201410001835</t>
+  </si>
+  <si>
+    <t>201410001843</t>
+  </si>
+  <si>
+    <t>201410001844</t>
+  </si>
+  <si>
+    <t>201410001853</t>
+  </si>
+  <si>
+    <t>201410001866</t>
+  </si>
+  <si>
+    <t>201410001870</t>
+  </si>
+  <si>
+    <t>201410001875</t>
+  </si>
+  <si>
+    <t>201410001904</t>
+  </si>
+  <si>
+    <t>201410001923</t>
+  </si>
+  <si>
+    <t>201410001968</t>
+  </si>
+  <si>
+    <t>201410001996</t>
+  </si>
+  <si>
+    <t>201410001998</t>
+  </si>
+  <si>
+    <t>201410001999</t>
+  </si>
+  <si>
+    <t>201410002094</t>
+  </si>
+  <si>
+    <t>201410002107</t>
+  </si>
+  <si>
+    <t>201410002190</t>
+  </si>
+  <si>
+    <t>201410002195</t>
+  </si>
+  <si>
     <t>201410002313</t>
   </si>
   <si>
@@ -223,13 +592,10 @@
     <t>201410005299</t>
   </si>
   <si>
-    <t>201410005158</t>
-  </si>
-  <si>
-    <t>201410005162</t>
-  </si>
-  <si>
-    <t>201410005170</t>
+    <t>201410005331</t>
+  </si>
+  <si>
+    <t>201410005584</t>
   </si>
   <si>
     <t>201410005233</t>
@@ -244,9 +610,6 @@
     <t>201410005285</t>
   </si>
   <si>
-    <t>201410005331</t>
-  </si>
-  <si>
     <t>201410005367</t>
   </si>
   <si>
@@ -271,7 +634,34 @@
     <t>201410005486</t>
   </si>
   <si>
-    <t>201410005161</t>
+    <t>201410005497</t>
+  </si>
+  <si>
+    <t>201410005534</t>
+  </si>
+  <si>
+    <t>201410005537</t>
+  </si>
+  <si>
+    <t>201410005612</t>
+  </si>
+  <si>
+    <t>201410005622</t>
+  </si>
+  <si>
+    <t>201410005644</t>
+  </si>
+  <si>
+    <t>201410005650</t>
+  </si>
+  <si>
+    <t>201410005651</t>
+  </si>
+  <si>
+    <t>201410005676</t>
+  </si>
+  <si>
+    <t>201410005679</t>
   </si>
   <si>
     <t>WESLEY DORIVAL DA SILVA PAIXAO</t>
@@ -505,6 +895,405 @@
     <t>ANA CLAUDIA ARAUJO RODRIGUES</t>
   </si>
   <si>
+    <t>SILVANA APARECIDA FERREIRA DA COSTA</t>
+  </si>
+  <si>
+    <t>ANDRE FALEIROS DE ANDRADE</t>
+  </si>
+  <si>
+    <t>JOSE NILTON DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>GABRIELA PIMENTA COELHO DE CASTRO</t>
+  </si>
+  <si>
+    <t>EDSON FRANCISCO DA SILVA</t>
+  </si>
+  <si>
+    <t>VICTOR HUGO MANOCHIO VERISSIMO</t>
+  </si>
+  <si>
+    <t>LAZARA CANDIDA TARGAS</t>
+  </si>
+  <si>
+    <t>NAYARA CRISTINA MARINHO A FERMINO</t>
+  </si>
+  <si>
+    <t>JULI CASSIA DOS SANTOS ASSUNCAO</t>
+  </si>
+  <si>
+    <t>GUILHERME GRICI HISATOMI</t>
+  </si>
+  <si>
+    <t>GUILHERME LUIZ GROSSI HELENO</t>
+  </si>
+  <si>
+    <t>NOEMI FERNANDA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>SILVIA CRISTINA BERGONCINI ALVES</t>
+  </si>
+  <si>
+    <t>JOANA DARC DA SILVA</t>
+  </si>
+  <si>
+    <t>CAMILA LUCIANA BERGAMO SOUZA</t>
+  </si>
+  <si>
+    <t>MARIA DAS DORES DE LIMA</t>
+  </si>
+  <si>
+    <t>CAMILA CASTANHEIRA</t>
+  </si>
+  <si>
+    <t>RAFAEL DE OLIVEIRA MARCELINO</t>
+  </si>
+  <si>
+    <t>MARIA GOMES DA SILVA</t>
+  </si>
+  <si>
+    <t>MARIANE BARROS BORGES DA SILVA</t>
+  </si>
+  <si>
+    <t>CASSIO EDUARDO BRAGA BARBOSA</t>
+  </si>
+  <si>
+    <t>LEONARDO HENRIQUE NOGUEIRA DE MATOS</t>
+  </si>
+  <si>
+    <t>LUCIANA MACHADO FRASCARI MANCINI</t>
+  </si>
+  <si>
+    <t>JAINE MARIA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>KATIA CRISTINA ALVES</t>
+  </si>
+  <si>
+    <t>YASMIN DOLIGO CARMINATTI</t>
+  </si>
+  <si>
+    <t>ARIANE CRISTINA SILVA RAMOS</t>
+  </si>
+  <si>
+    <t>DANIELA CRISTINA DE ALMEIDA CAMARGO</t>
+  </si>
+  <si>
+    <t>CARINA LETICIA BORGES DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>DENISE ERONDINA CORREA GALVAO</t>
+  </si>
+  <si>
+    <t>MARIA JARDIANA CORREA</t>
+  </si>
+  <si>
+    <t>MARLENE SOARES</t>
+  </si>
+  <si>
+    <t>MAYARA CRISTINA GONCALVES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>MARINA DOS SANTOS VICENTE</t>
+  </si>
+  <si>
+    <t>ANTONIO PAULO ZAINE</t>
+  </si>
+  <si>
+    <t>VANILDA APARECIDA FURNIEL BONFIM</t>
+  </si>
+  <si>
+    <t>MARCIO JOSE MACIEL BORGES</t>
+  </si>
+  <si>
+    <t>CINTIA SILVA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>TIAGO HENRIQUE DA SILVA</t>
+  </si>
+  <si>
+    <t>JAIRO DE SOUZA MACHADO JUNIOR</t>
+  </si>
+  <si>
+    <t>SIMONE APARECIDA BARBOSA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>FERNANDO ZAPPAROLI GONCALVES</t>
+  </si>
+  <si>
+    <t>PAULO CESAR RAMOS PEREIRA</t>
+  </si>
+  <si>
+    <t>ANA PAULA LOPES SOARES</t>
+  </si>
+  <si>
+    <t>EDGAR LUIZ DE SOUZA</t>
+  </si>
+  <si>
+    <t>APARECIDO GONCALVES</t>
+  </si>
+  <si>
+    <t>WILSON ALEXANDRE SILVA</t>
+  </si>
+  <si>
+    <t>LIGIA RODRIGUES SIMONETTI</t>
+  </si>
+  <si>
+    <t>JOANA DARC APARECIDA GONCALVES</t>
+  </si>
+  <si>
+    <t>RENATA APARECIDA COUTO DE CASTRO</t>
+  </si>
+  <si>
+    <t>ANTONIA DO CARMO MAIA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>LIDIA DEBONI DE LIMA</t>
+  </si>
+  <si>
+    <t>ELIETE APARECIDA DOS SANTOS FERNANDES OLIVEIRA</t>
+  </si>
+  <si>
+    <t>NARA LUIZA DA SILVA PAULA</t>
+  </si>
+  <si>
+    <t>RENILDA DOS SANTOS MENEZES DA SILVA</t>
+  </si>
+  <si>
+    <t>GREICE DANIELLE RIBEIRO CAMARGO</t>
+  </si>
+  <si>
+    <t>ALINE SERAFIM DA COSTA</t>
+  </si>
+  <si>
+    <t>JOSE PEREIRA GOMES NETO</t>
+  </si>
+  <si>
+    <t>EDNETE SIMAO DA SILVA GUEDES</t>
+  </si>
+  <si>
+    <t>MARIA LUIZA BIROLLI</t>
+  </si>
+  <si>
+    <t>ESTELA MARIA MARITAN GARCIA</t>
+  </si>
+  <si>
+    <t>ANDERSON CARDOSO DA SILVA</t>
+  </si>
+  <si>
+    <t>ALECSON JOSE DOS PASSOS</t>
+  </si>
+  <si>
+    <t>FABIO XAVIER DE SOUZA</t>
+  </si>
+  <si>
+    <t>PEDRO DE TAL</t>
+  </si>
+  <si>
+    <t>SERGIO VICTOR BATISTA</t>
+  </si>
+  <si>
+    <t>MILTON DE TAL</t>
+  </si>
+  <si>
+    <t>LUIZ CARLOS</t>
+  </si>
+  <si>
+    <t>JERCI DUARTE FERREIRA FILHO</t>
+  </si>
+  <si>
+    <t>FRANCISCO CARLOS DOS SANTOS</t>
+  </si>
+  <si>
+    <t>LUCIO DE TAL</t>
+  </si>
+  <si>
+    <t>BENEDITA FONSECA</t>
+  </si>
+  <si>
+    <t>LILIAM SANTOS BARBOSA</t>
+  </si>
+  <si>
+    <t>CLAUDETE DA SILVA GIRARDI</t>
+  </si>
+  <si>
+    <t>AMANDA LOURENCO MATOS</t>
+  </si>
+  <si>
+    <t>EDNOEL FERREIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>ELIANDRA MAIA DA COSTA</t>
+  </si>
+  <si>
+    <t>FABIO FERREIRA FOSSALUSSA</t>
+  </si>
+  <si>
+    <t>LORENA FRANCINI DE  OLIVEIRA MANSIM</t>
+  </si>
+  <si>
+    <t>ALINE VIRGINIA CUSTODIO</t>
+  </si>
+  <si>
+    <t>RODRIGO MILHORATI GUIMARAES TRINDADE</t>
+  </si>
+  <si>
+    <t>VITOR PEGUIM DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>ELISSANDRA MATILDE PEREIRA</t>
+  </si>
+  <si>
+    <t>LEANDRO SANTOS ABRAO</t>
+  </si>
+  <si>
+    <t>SUELI MARTINELI TABORDA</t>
+  </si>
+  <si>
+    <t>RODRIGO MASAYUKI TRINDADE</t>
+  </si>
+  <si>
+    <t>JAINE SUELEN DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>FABIOLA BEATRIZ PAULINA DE SOUZA FERREIRA</t>
+  </si>
+  <si>
+    <t>CLAILCE MIRIAN PASCHOAL</t>
+  </si>
+  <si>
+    <t>CLAUDINEI DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>LUCIANE JOSE DOS SANTOS</t>
+  </si>
+  <si>
+    <t>KARINA DE FATIMA CORREA DA SILVA</t>
+  </si>
+  <si>
+    <t>EWANER ARANTES</t>
+  </si>
+  <si>
+    <t>SABRINA DE ARAUJO RAMOS</t>
+  </si>
+  <si>
+    <t>MARIA ANTONIA PAULA RODRIGUES</t>
+  </si>
+  <si>
+    <t>RODRIGO DE OLIVEIRA SILVA</t>
+  </si>
+  <si>
+    <t>LUCIANA BANDEIRA MOREIRA</t>
+  </si>
+  <si>
+    <t>RENATO SANTOS DOS REIS</t>
+  </si>
+  <si>
+    <t>ANNA FLAVIA BERNARDO BOBEDA</t>
+  </si>
+  <si>
+    <t>ALESSANDRO RAMOS NASCIMENTO</t>
+  </si>
+  <si>
+    <t>BIANCA ATAIDE MENEZES ARES</t>
+  </si>
+  <si>
+    <t>ANTONIA VANDERLANY FERNANDES</t>
+  </si>
+  <si>
+    <t>ISRAEL COARACY FERREIRA</t>
+  </si>
+  <si>
+    <t>ELIZANGELA FELTRIN GARCIA</t>
+  </si>
+  <si>
+    <t>MARTA ANTONIA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>ANA CLAUDIA LUZ DA MOTA</t>
+  </si>
+  <si>
+    <t>REGIANE CRISTINA BURJATO</t>
+  </si>
+  <si>
+    <t>VANESSA CRISTINA GONCALVES</t>
+  </si>
+  <si>
+    <t>LUCIANA APARECIDA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>KEMILLY SOPHIA RODRIGUES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>ADRIANA DE PAULA DA SILVA</t>
+  </si>
+  <si>
+    <t>LUIZA DE ALMEIDA MALMEGRIN</t>
+  </si>
+  <si>
+    <t>ANDREIA MARIA MACEDO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>ANDREA DE OLIVEIRA CAMPOS</t>
+  </si>
+  <si>
+    <t>AMANDA FEITOSA DE LIMA</t>
+  </si>
+  <si>
+    <t>BEATRIZ APARECIDA COUTINHO RAMOS BUCK</t>
+  </si>
+  <si>
+    <t>ANA CECILIA RIBEIRO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>CAMILA VIERIRA GOMES</t>
+  </si>
+  <si>
+    <t>TATIANE CHRISTINE SANCHES MASANA</t>
+  </si>
+  <si>
+    <t>TALITA ELIZA INACIO NOGUEIRA RIBEIRO</t>
+  </si>
+  <si>
+    <t>RENAN MARQUES DOS REIS MASSI</t>
+  </si>
+  <si>
+    <t>FABIANA GEORJUTI ISIDORO</t>
+  </si>
+  <si>
+    <t>NATALIA ROSA DE MORAIS VIEIRA</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDES BARBOSA</t>
+  </si>
+  <si>
+    <t>ADRIANA CASSIA DE LIMA</t>
+  </si>
+  <si>
+    <t>RN TAINARA CRISTINA CAPUCHO</t>
+  </si>
+  <si>
+    <t>RENATO DE ASSIS CIRINO</t>
+  </si>
+  <si>
+    <t>MARLI JUSTINO MENEGHETTI</t>
+  </si>
+  <si>
+    <t>LEANDRO VINICIUS APARECIDO SIMIONATO</t>
+  </si>
+  <si>
+    <t>LUCIANA MARIA DA SILVA CARVALHO</t>
+  </si>
+  <si>
+    <t>ALAIDE GARCIA TALHACOLI</t>
+  </si>
+  <si>
+    <t>MARIA LUIZA TOME DA SILVA ARANTES</t>
+  </si>
+  <si>
+    <t>HELVIA RAFAELA RANY SILVA SANTOS</t>
+  </si>
+  <si>
     <t>UNIDADE BASICA DE SAUDE DR LOTFALLAH MIZIARA</t>
   </si>
   <si>
@@ -557,6 +1346,21 @@
   </si>
   <si>
     <t>UNIDADE BASICA DE SAUDE DR BARTOLOMEU MARAGLIANO VENERE</t>
+  </si>
+  <si>
+    <t>HOSPITAL DE AMOR NOSSA SENHORA</t>
+  </si>
+  <si>
+    <t>UPA UNIDADE DE PRONTO ATENDIMENTO</t>
+  </si>
+  <si>
+    <t>UNIDADE BASICA DE SAUDE DO IBITU</t>
+  </si>
+  <si>
+    <t>CASA TRANSITORIA ANDRE LUIZ</t>
+  </si>
+  <si>
+    <t>UNIDADE BASICA ARCHIMEDES MACHADO DE BARRETOS</t>
   </si>
   <si>
     <t>BARRETOS</t>
@@ -935,13 +1739,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:K286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -969,1952 +1773,7373 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
-        <v>163</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>201410002313</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="H2" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" t="s">
-        <v>164</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>201410002334</v>
+      </c>
+      <c r="D3" t="s">
+        <v>217</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
+        <v>427</v>
       </c>
       <c r="H3" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" t="s">
-        <v>165</v>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>201410002364</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>428</v>
       </c>
       <c r="H4" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I4" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" t="s">
-        <v>166</v>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>201410002392</v>
+      </c>
+      <c r="D5" t="s">
+        <v>219</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>429</v>
       </c>
       <c r="H5" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I5" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s">
-        <v>167</v>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>201410002401</v>
+      </c>
+      <c r="D6" t="s">
+        <v>220</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>430</v>
       </c>
       <c r="H6" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I6" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" t="s">
-        <v>165</v>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>201410002423</v>
+      </c>
+      <c r="D7" t="s">
+        <v>221</v>
       </c>
       <c r="G7" t="s">
-        <v>181</v>
+        <v>428</v>
       </c>
       <c r="H7" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" t="s">
-        <v>168</v>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>201410002444</v>
+      </c>
+      <c r="D8" t="s">
+        <v>222</v>
       </c>
       <c r="G8" t="s">
-        <v>181</v>
+        <v>431</v>
       </c>
       <c r="H8" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I8" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" t="s">
-        <v>163</v>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>201410002477</v>
+      </c>
+      <c r="D9" t="s">
+        <v>223</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="H9" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I9" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" t="s">
-        <v>166</v>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>201410002512</v>
+      </c>
+      <c r="D10" t="s">
+        <v>224</v>
       </c>
       <c r="G10" t="s">
-        <v>181</v>
+        <v>429</v>
       </c>
       <c r="H10" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I10" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" t="s">
-        <v>163</v>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>201410002529</v>
+      </c>
+      <c r="D11" t="s">
+        <v>225</v>
       </c>
       <c r="G11" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="H11" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I11" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" t="s">
-        <v>169</v>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>201410002574</v>
+      </c>
+      <c r="D12" t="s">
+        <v>226</v>
       </c>
       <c r="G12" t="s">
-        <v>181</v>
+        <v>432</v>
       </c>
       <c r="H12" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I12" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" t="s">
-        <v>166</v>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>201410002628</v>
+      </c>
+      <c r="D13" t="s">
+        <v>227</v>
       </c>
       <c r="G13" t="s">
-        <v>181</v>
+        <v>429</v>
       </c>
       <c r="H13" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I13" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" t="s">
-        <v>170</v>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>201410002695</v>
+      </c>
+      <c r="D14" t="s">
+        <v>228</v>
       </c>
       <c r="G14" t="s">
-        <v>181</v>
+        <v>433</v>
       </c>
       <c r="H14" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I14" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" t="s">
-        <v>166</v>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>201410002712</v>
+      </c>
+      <c r="D15" t="s">
+        <v>229</v>
       </c>
       <c r="G15" t="s">
-        <v>181</v>
-      </c>
-      <c r="I15" t="s">
-        <v>182</v>
+        <v>429</v>
+      </c>
+      <c r="H15" t="s">
+        <v>449</v>
       </c>
       <c r="J15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K15" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" t="s">
-        <v>163</v>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>201410002980</v>
+      </c>
+      <c r="D16" t="s">
+        <v>230</v>
       </c>
       <c r="G16" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="H16" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K16" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" t="s">
-        <v>163</v>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>201410002994</v>
+      </c>
+      <c r="D17" t="s">
+        <v>231</v>
       </c>
       <c r="G17" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="H17" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" t="s">
-        <v>163</v>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>201410003058</v>
+      </c>
+      <c r="D18" t="s">
+        <v>232</v>
       </c>
       <c r="G18" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="H18" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K18" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" t="s">
-        <v>166</v>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>201410003080</v>
+      </c>
+      <c r="D19" t="s">
+        <v>233</v>
       </c>
       <c r="G19" t="s">
-        <v>181</v>
+        <v>429</v>
       </c>
       <c r="H19" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K19" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" t="s">
-        <v>165</v>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>201410003124</v>
+      </c>
+      <c r="D20" t="s">
+        <v>234</v>
       </c>
       <c r="G20" t="s">
-        <v>181</v>
+        <v>428</v>
       </c>
       <c r="H20" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" t="s">
-        <v>171</v>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>201410003136</v>
+      </c>
+      <c r="D21" t="s">
+        <v>235</v>
       </c>
       <c r="G21" t="s">
-        <v>181</v>
-      </c>
-      <c r="I21" t="s">
-        <v>182</v>
+        <v>434</v>
+      </c>
+      <c r="H21" t="s">
+        <v>449</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K21" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" t="s">
-        <v>165</v>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>201410003225</v>
+      </c>
+      <c r="D22" t="s">
+        <v>236</v>
       </c>
       <c r="G22" t="s">
-        <v>181</v>
+        <v>428</v>
       </c>
       <c r="H22" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K22" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" t="s">
-        <v>167</v>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>201410003303</v>
+      </c>
+      <c r="D23" t="s">
+        <v>237</v>
       </c>
       <c r="G23" t="s">
-        <v>181</v>
+        <v>430</v>
       </c>
       <c r="H23" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K23" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" t="s">
-        <v>166</v>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>201410003401</v>
+      </c>
+      <c r="D24" t="s">
+        <v>238</v>
       </c>
       <c r="G24" t="s">
-        <v>181</v>
+        <v>429</v>
       </c>
       <c r="H24" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I24" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" t="s">
-        <v>165</v>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>201410003414</v>
+      </c>
+      <c r="D25" t="s">
+        <v>239</v>
       </c>
       <c r="G25" t="s">
-        <v>181</v>
+        <v>428</v>
       </c>
       <c r="H25" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I25" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K25" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" t="s">
-        <v>172</v>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>201410003477</v>
+      </c>
+      <c r="D26" t="s">
+        <v>240</v>
       </c>
       <c r="G26" t="s">
-        <v>181</v>
+        <v>435</v>
       </c>
       <c r="H26" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I26" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K26" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" t="s">
-        <v>168</v>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>201410003500</v>
+      </c>
+      <c r="D27" t="s">
+        <v>241</v>
       </c>
       <c r="G27" t="s">
-        <v>181</v>
+        <v>431</v>
       </c>
       <c r="H27" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I27" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" t="s">
-        <v>163</v>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>201410003717</v>
+      </c>
+      <c r="D28" t="s">
+        <v>242</v>
       </c>
       <c r="G28" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="H28" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I28" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" t="s">
-        <v>163</v>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>201410003718</v>
+      </c>
+      <c r="D29" t="s">
+        <v>243</v>
       </c>
       <c r="G29" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="H29" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I29" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K29" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" t="s">
-        <v>163</v>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>201410003719</v>
+      </c>
+      <c r="D30" t="s">
+        <v>244</v>
       </c>
       <c r="G30" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="H30" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I30" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K30" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" t="s">
-        <v>173</v>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>201410003785</v>
+      </c>
+      <c r="D31" t="s">
+        <v>245</v>
       </c>
       <c r="G31" t="s">
-        <v>181</v>
+        <v>436</v>
       </c>
       <c r="H31" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I31" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J31" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K31" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" t="s">
-        <v>165</v>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>201410003897</v>
+      </c>
+      <c r="D32" t="s">
+        <v>246</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>428</v>
       </c>
       <c r="H32" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I32" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K32" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" t="s">
-        <v>165</v>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>201410003903</v>
+      </c>
+      <c r="D33" t="s">
+        <v>247</v>
       </c>
       <c r="G33" t="s">
-        <v>181</v>
+        <v>428</v>
       </c>
       <c r="H33" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I33" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J33" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" t="s">
-        <v>168</v>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>201410003927</v>
+      </c>
+      <c r="D34" t="s">
+        <v>248</v>
       </c>
       <c r="G34" t="s">
-        <v>181</v>
+        <v>431</v>
       </c>
       <c r="H34" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I34" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K34" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" t="s">
-        <v>173</v>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>201410003976</v>
+      </c>
+      <c r="D35" t="s">
+        <v>249</v>
       </c>
       <c r="G35" t="s">
-        <v>181</v>
+        <v>436</v>
       </c>
       <c r="H35" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I35" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K35" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" t="s">
-        <v>174</v>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>201410003984</v>
+      </c>
+      <c r="D36" t="s">
+        <v>250</v>
       </c>
       <c r="G36" t="s">
-        <v>181</v>
+        <v>437</v>
       </c>
       <c r="H36" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I36" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J36" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K36" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" t="s">
-        <v>173</v>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>201410004053</v>
+      </c>
+      <c r="D37" t="s">
+        <v>251</v>
       </c>
       <c r="G37" t="s">
-        <v>181</v>
+        <v>436</v>
       </c>
       <c r="H37" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I37" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J37" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K37" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" t="s">
-        <v>169</v>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>201410004065</v>
+      </c>
+      <c r="D38" t="s">
+        <v>252</v>
       </c>
       <c r="G38" t="s">
-        <v>181</v>
+        <v>432</v>
       </c>
       <c r="H38" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I38" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J38" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K38" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" t="s">
-        <v>175</v>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>201410004129</v>
+      </c>
+      <c r="D39" t="s">
+        <v>253</v>
       </c>
       <c r="G39" t="s">
-        <v>181</v>
-      </c>
-      <c r="I39" t="s">
-        <v>182</v>
+        <v>438</v>
+      </c>
+      <c r="H39" t="s">
+        <v>449</v>
       </c>
       <c r="J39" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K39" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" t="s">
-        <v>173</v>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>201410004335</v>
+      </c>
+      <c r="D40" t="s">
+        <v>254</v>
       </c>
       <c r="G40" t="s">
-        <v>181</v>
+        <v>436</v>
       </c>
       <c r="H40" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I40" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J40" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K40" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" t="s">
-        <v>169</v>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>201410004361</v>
+      </c>
+      <c r="D41" t="s">
+        <v>255</v>
       </c>
       <c r="G41" t="s">
-        <v>181</v>
+        <v>432</v>
       </c>
       <c r="H41" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I41" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J41" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K41" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F42" t="s">
-        <v>169</v>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>201410004362</v>
+      </c>
+      <c r="D42" t="s">
+        <v>256</v>
       </c>
       <c r="G42" t="s">
-        <v>181</v>
+        <v>432</v>
       </c>
       <c r="H42" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I42" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J42" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K42" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43" t="s">
-        <v>169</v>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>201410004363</v>
+      </c>
+      <c r="D43" t="s">
+        <v>257</v>
       </c>
       <c r="G43" t="s">
-        <v>181</v>
+        <v>432</v>
       </c>
       <c r="H43" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I43" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K43" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" t="s">
-        <v>128</v>
-      </c>
-      <c r="F44" t="s">
-        <v>165</v>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>201410004400</v>
+      </c>
+      <c r="D44" t="s">
+        <v>258</v>
       </c>
       <c r="G44" t="s">
-        <v>181</v>
+        <v>428</v>
       </c>
       <c r="H44" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I44" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J44" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K44" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" t="s">
-        <v>129</v>
-      </c>
-      <c r="F45" t="s">
-        <v>165</v>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>201410004401</v>
+      </c>
+      <c r="D45" t="s">
+        <v>259</v>
       </c>
       <c r="G45" t="s">
-        <v>181</v>
+        <v>428</v>
       </c>
       <c r="H45" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I45" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J45" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K45" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" t="s">
-        <v>130</v>
-      </c>
-      <c r="F46" t="s">
-        <v>176</v>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>201410004528</v>
+      </c>
+      <c r="D46" t="s">
+        <v>260</v>
       </c>
       <c r="G46" t="s">
-        <v>181</v>
+        <v>439</v>
       </c>
       <c r="H46" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I46" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J46" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K46" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" t="s">
-        <v>131</v>
-      </c>
-      <c r="F47" t="s">
-        <v>163</v>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>201410004532</v>
+      </c>
+      <c r="D47" t="s">
+        <v>261</v>
       </c>
       <c r="G47" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="H47" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I47" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J47" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K47" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" t="s">
-        <v>163</v>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>201410004536</v>
+      </c>
+      <c r="D48" t="s">
+        <v>262</v>
       </c>
       <c r="G48" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="H48" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I48" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K48" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" t="s">
-        <v>133</v>
-      </c>
-      <c r="F49" t="s">
-        <v>177</v>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>201410004539</v>
+      </c>
+      <c r="D49" t="s">
+        <v>263</v>
       </c>
       <c r="G49" t="s">
-        <v>181</v>
+        <v>440</v>
       </c>
       <c r="H49" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I49" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J49" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K49" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" t="s">
-        <v>134</v>
-      </c>
-      <c r="F50" t="s">
-        <v>163</v>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>201410004546</v>
+      </c>
+      <c r="D50" t="s">
+        <v>264</v>
       </c>
       <c r="G50" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="H50" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I50" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J50" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K50" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" t="s">
-        <v>135</v>
-      </c>
-      <c r="F51" t="s">
-        <v>165</v>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>201410004550</v>
+      </c>
+      <c r="D51" t="s">
+        <v>265</v>
       </c>
       <c r="G51" t="s">
-        <v>181</v>
+        <v>428</v>
       </c>
       <c r="H51" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I51" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J51" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K51" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" t="s">
-        <v>136</v>
-      </c>
-      <c r="F52" t="s">
-        <v>166</v>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>201410004551</v>
+      </c>
+      <c r="D52" t="s">
+        <v>266</v>
       </c>
       <c r="G52" t="s">
-        <v>181</v>
+        <v>429</v>
       </c>
       <c r="H52" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I52" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J52" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K52" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" t="s">
-        <v>137</v>
-      </c>
-      <c r="F53" t="s">
-        <v>174</v>
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>201410004556</v>
+      </c>
+      <c r="D53" t="s">
+        <v>267</v>
       </c>
       <c r="G53" t="s">
-        <v>181</v>
+        <v>437</v>
       </c>
       <c r="H53" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I53" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J53" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K53" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" t="s">
-        <v>138</v>
-      </c>
-      <c r="F54" t="s">
-        <v>163</v>
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>201410004785</v>
+      </c>
+      <c r="D54" t="s">
+        <v>268</v>
       </c>
       <c r="G54" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="H54" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I54" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J54" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K54" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F55" t="s">
-        <v>171</v>
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>201410004787</v>
+      </c>
+      <c r="D55" t="s">
+        <v>269</v>
       </c>
       <c r="G55" t="s">
-        <v>181</v>
-      </c>
-      <c r="I55" t="s">
-        <v>182</v>
+        <v>434</v>
+      </c>
+      <c r="H55" t="s">
+        <v>449</v>
       </c>
       <c r="J55" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K55" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" t="s">
-        <v>140</v>
-      </c>
-      <c r="F56" t="s">
-        <v>176</v>
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <v>201410004799</v>
+      </c>
+      <c r="D56" t="s">
+        <v>270</v>
       </c>
       <c r="G56" t="s">
-        <v>181</v>
+        <v>439</v>
       </c>
       <c r="H56" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I56" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J56" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K56" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" t="s">
-        <v>141</v>
-      </c>
-      <c r="F57" t="s">
-        <v>177</v>
+      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <v>201410004807</v>
+      </c>
+      <c r="D57" t="s">
+        <v>271</v>
       </c>
       <c r="G57" t="s">
-        <v>181</v>
+        <v>440</v>
       </c>
       <c r="H57" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I57" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J57" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K57" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" t="s">
-        <v>142</v>
-      </c>
-      <c r="F58" t="s">
-        <v>173</v>
+      <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <v>201410004999</v>
+      </c>
+      <c r="D58" t="s">
+        <v>272</v>
       </c>
       <c r="G58" t="s">
-        <v>181</v>
+        <v>436</v>
       </c>
       <c r="H58" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I58" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J58" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K58" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" t="s">
-        <v>143</v>
-      </c>
-      <c r="F59" t="s">
-        <v>165</v>
+      <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <v>201410005249</v>
+      </c>
+      <c r="D59" t="s">
+        <v>273</v>
       </c>
       <c r="G59" t="s">
-        <v>181</v>
+        <v>428</v>
       </c>
       <c r="H59" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I59" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J59" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K59" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" t="s">
-        <v>144</v>
-      </c>
-      <c r="F60" t="s">
-        <v>178</v>
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <v>201410005273</v>
+      </c>
+      <c r="D60" t="s">
+        <v>274</v>
       </c>
       <c r="G60" t="s">
-        <v>181</v>
+        <v>441</v>
       </c>
       <c r="H60" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I60" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J60" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K60" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" t="s">
-        <v>145</v>
-      </c>
-      <c r="F61" t="s">
-        <v>179</v>
+      <c r="B61">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>201410005299</v>
+      </c>
+      <c r="D61" t="s">
+        <v>275</v>
       </c>
       <c r="G61" t="s">
-        <v>181</v>
+        <v>442</v>
       </c>
       <c r="H61" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="I61" t="s">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="J61" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>450</v>
+      </c>
+      <c r="K61" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" t="s">
-        <v>146</v>
-      </c>
-      <c r="F62" t="s">
-        <v>178</v>
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>201410005158</v>
+      </c>
+      <c r="D62" t="s">
+        <v>276</v>
       </c>
       <c r="G62" t="s">
-        <v>181</v>
+        <v>441</v>
       </c>
       <c r="H62" t="s">
-        <v>183</v>
+        <v>449</v>
       </c>
       <c r="I62" t="s">
-        <v>183</v>
+        <v>451</v>
       </c>
       <c r="J62" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>451</v>
+      </c>
+      <c r="K62" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" t="s">
-        <v>147</v>
-      </c>
-      <c r="F63" t="s">
-        <v>169</v>
+      <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>201410005162</v>
+      </c>
+      <c r="D63" t="s">
+        <v>277</v>
       </c>
       <c r="G63" t="s">
-        <v>181</v>
+        <v>432</v>
       </c>
       <c r="H63" t="s">
-        <v>183</v>
+        <v>449</v>
       </c>
       <c r="I63" t="s">
-        <v>183</v>
+        <v>451</v>
       </c>
       <c r="J63" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>451</v>
+      </c>
+      <c r="K63" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" t="s">
-        <v>148</v>
-      </c>
-      <c r="F64" t="s">
-        <v>177</v>
+      <c r="B64">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <v>201410005170</v>
+      </c>
+      <c r="D64" t="s">
+        <v>278</v>
       </c>
       <c r="G64" t="s">
-        <v>181</v>
+        <v>440</v>
       </c>
       <c r="H64" t="s">
-        <v>183</v>
+        <v>449</v>
       </c>
       <c r="I64" t="s">
-        <v>183</v>
+        <v>451</v>
       </c>
       <c r="J64" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>451</v>
+      </c>
+      <c r="K64" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" t="s">
-        <v>149</v>
-      </c>
-      <c r="F65" t="s">
-        <v>163</v>
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>201410005233</v>
+      </c>
+      <c r="D65" t="s">
+        <v>279</v>
       </c>
       <c r="G65" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="H65" t="s">
-        <v>183</v>
+        <v>449</v>
       </c>
       <c r="I65" t="s">
-        <v>183</v>
+        <v>451</v>
       </c>
       <c r="J65" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>451</v>
+      </c>
+      <c r="K65" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" t="s">
-        <v>150</v>
-      </c>
-      <c r="F66" t="s">
-        <v>176</v>
+      <c r="B66">
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <v>201410005246</v>
+      </c>
+      <c r="D66" t="s">
+        <v>280</v>
       </c>
       <c r="G66" t="s">
-        <v>181</v>
+        <v>439</v>
       </c>
       <c r="H66" t="s">
-        <v>183</v>
+        <v>449</v>
       </c>
       <c r="I66" t="s">
-        <v>183</v>
+        <v>451</v>
       </c>
       <c r="J66" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>451</v>
+      </c>
+      <c r="K66" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" t="s">
-        <v>151</v>
-      </c>
-      <c r="F67" t="s">
-        <v>175</v>
+      <c r="B67">
+        <v>65</v>
+      </c>
+      <c r="C67">
+        <v>201410005256</v>
+      </c>
+      <c r="D67" t="s">
+        <v>281</v>
       </c>
       <c r="G67" t="s">
-        <v>181</v>
-      </c>
-      <c r="I67" t="s">
-        <v>183</v>
+        <v>438</v>
+      </c>
+      <c r="H67" t="s">
+        <v>449</v>
       </c>
       <c r="J67" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>451</v>
+      </c>
+      <c r="K67" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" t="s">
-        <v>152</v>
-      </c>
-      <c r="F68" t="s">
-        <v>180</v>
+      <c r="B68">
+        <v>66</v>
+      </c>
+      <c r="C68">
+        <v>201410005285</v>
+      </c>
+      <c r="D68" t="s">
+        <v>282</v>
       </c>
       <c r="G68" t="s">
-        <v>181</v>
+        <v>443</v>
       </c>
       <c r="H68" t="s">
-        <v>183</v>
+        <v>449</v>
       </c>
       <c r="I68" t="s">
-        <v>183</v>
+        <v>451</v>
       </c>
       <c r="J68" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>451</v>
+      </c>
+      <c r="K68" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
-        <v>76</v>
-      </c>
-      <c r="C69" t="s">
-        <v>153</v>
-      </c>
-      <c r="F69" t="s">
-        <v>166</v>
+      <c r="B69">
+        <v>67</v>
+      </c>
+      <c r="C69">
+        <v>201410005331</v>
+      </c>
+      <c r="D69" t="s">
+        <v>283</v>
       </c>
       <c r="G69" t="s">
-        <v>181</v>
-      </c>
-      <c r="J69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+        <v>429</v>
+      </c>
+      <c r="H69" t="s">
+        <v>449</v>
+      </c>
+      <c r="K69" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" t="s">
-        <v>154</v>
-      </c>
-      <c r="F70" t="s">
-        <v>179</v>
+      <c r="B70">
+        <v>68</v>
+      </c>
+      <c r="C70">
+        <v>201410005367</v>
+      </c>
+      <c r="D70" t="s">
+        <v>284</v>
       </c>
       <c r="G70" t="s">
-        <v>181</v>
-      </c>
-      <c r="J70" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>442</v>
+      </c>
+      <c r="H70" t="s">
+        <v>449</v>
+      </c>
+      <c r="K70" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" t="s">
-        <v>155</v>
-      </c>
-      <c r="F71" t="s">
-        <v>175</v>
+      <c r="B71">
+        <v>69</v>
+      </c>
+      <c r="C71">
+        <v>201410005385</v>
+      </c>
+      <c r="D71" t="s">
+        <v>285</v>
       </c>
       <c r="G71" t="s">
-        <v>181</v>
-      </c>
-      <c r="J71" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>438</v>
+      </c>
+      <c r="H71" t="s">
+        <v>449</v>
+      </c>
+      <c r="K71" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" t="s">
-        <v>156</v>
-      </c>
-      <c r="F72" t="s">
-        <v>175</v>
+      <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="C72">
+        <v>201410005386</v>
+      </c>
+      <c r="D72" t="s">
+        <v>286</v>
       </c>
       <c r="G72" t="s">
-        <v>181</v>
-      </c>
-      <c r="J72" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>438</v>
+      </c>
+      <c r="H72" t="s">
+        <v>449</v>
+      </c>
+      <c r="K72" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" t="s">
-        <v>157</v>
-      </c>
-      <c r="F73" t="s">
-        <v>175</v>
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="C73">
+        <v>201410005387</v>
+      </c>
+      <c r="D73" t="s">
+        <v>287</v>
       </c>
       <c r="G73" t="s">
-        <v>181</v>
-      </c>
-      <c r="J73" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>438</v>
+      </c>
+      <c r="H73" t="s">
+        <v>449</v>
+      </c>
+      <c r="K73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" t="s">
-        <v>158</v>
-      </c>
-      <c r="F74" t="s">
-        <v>175</v>
+      <c r="B74">
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <v>201410005388</v>
+      </c>
+      <c r="D74" t="s">
+        <v>288</v>
       </c>
       <c r="G74" t="s">
-        <v>181</v>
-      </c>
-      <c r="J74" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>438</v>
+      </c>
+      <c r="H74" t="s">
+        <v>449</v>
+      </c>
+      <c r="K74" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" t="s">
-        <v>159</v>
-      </c>
-      <c r="F75" t="s">
-        <v>173</v>
+      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="C75">
+        <v>201410005458</v>
+      </c>
+      <c r="D75" t="s">
+        <v>289</v>
       </c>
       <c r="G75" t="s">
-        <v>181</v>
-      </c>
-      <c r="J75" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>436</v>
+      </c>
+      <c r="H75" t="s">
+        <v>449</v>
+      </c>
+      <c r="K75" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76" t="s">
-        <v>160</v>
-      </c>
-      <c r="F76" t="s">
-        <v>163</v>
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76">
+        <v>201410005482</v>
+      </c>
+      <c r="D76" t="s">
+        <v>290</v>
       </c>
       <c r="G76" t="s">
-        <v>181</v>
-      </c>
-      <c r="J76" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>426</v>
+      </c>
+      <c r="H76" t="s">
+        <v>449</v>
+      </c>
+      <c r="K76" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" t="s">
-        <v>161</v>
-      </c>
-      <c r="F77" t="s">
-        <v>180</v>
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77">
+        <v>201410005486</v>
+      </c>
+      <c r="D77" t="s">
+        <v>291</v>
       </c>
       <c r="G77" t="s">
-        <v>181</v>
-      </c>
-      <c r="J77" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>443</v>
+      </c>
+      <c r="H77" t="s">
+        <v>449</v>
+      </c>
+      <c r="K77" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" t="s">
-        <v>162</v>
-      </c>
-      <c r="F78" t="s">
-        <v>163</v>
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="C78">
+        <v>201410005161</v>
+      </c>
+      <c r="D78" t="s">
+        <v>292</v>
       </c>
       <c r="G78" t="s">
-        <v>181</v>
-      </c>
-      <c r="J78" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>426</v>
+      </c>
+      <c r="H78" t="s">
+        <v>449</v>
+      </c>
+      <c r="K78" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79">
+        <v>77</v>
+      </c>
+      <c r="C79">
+        <v>201410005388</v>
+      </c>
+      <c r="D79" t="s">
+        <v>288</v>
+      </c>
+      <c r="G79" t="s">
+        <v>438</v>
+      </c>
+      <c r="H79" t="s">
+        <v>449</v>
+      </c>
+      <c r="K79" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>293</v>
+      </c>
+      <c r="G80" t="s">
+        <v>436</v>
+      </c>
+      <c r="H80" t="s">
+        <v>449</v>
+      </c>
+      <c r="I80" t="s">
+        <v>450</v>
+      </c>
+      <c r="J80" t="s">
+        <v>450</v>
+      </c>
+      <c r="K80" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>294</v>
+      </c>
+      <c r="G81" t="s">
+        <v>429</v>
+      </c>
+      <c r="H81" t="s">
+        <v>449</v>
+      </c>
+      <c r="I81" t="s">
+        <v>450</v>
+      </c>
+      <c r="J81" t="s">
+        <v>450</v>
+      </c>
+      <c r="K81" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>295</v>
+      </c>
+      <c r="G82" t="s">
+        <v>430</v>
+      </c>
+      <c r="H82" t="s">
+        <v>449</v>
+      </c>
+      <c r="I82" t="s">
+        <v>450</v>
+      </c>
+      <c r="J82" t="s">
+        <v>450</v>
+      </c>
+      <c r="K82" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>296</v>
+      </c>
+      <c r="G83" t="s">
+        <v>430</v>
+      </c>
+      <c r="H83" t="s">
+        <v>449</v>
+      </c>
+      <c r="I83" t="s">
+        <v>450</v>
+      </c>
+      <c r="J83" t="s">
+        <v>450</v>
+      </c>
+      <c r="K83" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>297</v>
+      </c>
+      <c r="G84" t="s">
+        <v>444</v>
+      </c>
+      <c r="H84" t="s">
+        <v>449</v>
+      </c>
+      <c r="I84" t="s">
+        <v>450</v>
+      </c>
+      <c r="J84" t="s">
+        <v>450</v>
+      </c>
+      <c r="K84" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>298</v>
+      </c>
+      <c r="G85" t="s">
+        <v>436</v>
+      </c>
+      <c r="H85" t="s">
+        <v>449</v>
+      </c>
+      <c r="I85" t="s">
+        <v>450</v>
+      </c>
+      <c r="J85" t="s">
+        <v>450</v>
+      </c>
+      <c r="K85" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" t="s">
+        <v>299</v>
+      </c>
+      <c r="G86" t="s">
+        <v>444</v>
+      </c>
+      <c r="H86" t="s">
+        <v>449</v>
+      </c>
+      <c r="I86" t="s">
+        <v>450</v>
+      </c>
+      <c r="J86" t="s">
+        <v>450</v>
+      </c>
+      <c r="K86" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" t="s">
+        <v>300</v>
+      </c>
+      <c r="G87" t="s">
+        <v>430</v>
+      </c>
+      <c r="H87" t="s">
+        <v>449</v>
+      </c>
+      <c r="I87" t="s">
+        <v>450</v>
+      </c>
+      <c r="J87" t="s">
+        <v>450</v>
+      </c>
+      <c r="K87" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" t="s">
+        <v>301</v>
+      </c>
+      <c r="G88" t="s">
+        <v>430</v>
+      </c>
+      <c r="H88" t="s">
+        <v>449</v>
+      </c>
+      <c r="I88" t="s">
+        <v>450</v>
+      </c>
+      <c r="J88" t="s">
+        <v>450</v>
+      </c>
+      <c r="K88" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" t="s">
+        <v>302</v>
+      </c>
+      <c r="G89" t="s">
+        <v>430</v>
+      </c>
+      <c r="H89" t="s">
+        <v>449</v>
+      </c>
+      <c r="I89" t="s">
+        <v>450</v>
+      </c>
+      <c r="J89" t="s">
+        <v>450</v>
+      </c>
+      <c r="K89" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
+        <v>303</v>
+      </c>
+      <c r="G90" t="s">
+        <v>432</v>
+      </c>
+      <c r="H90" t="s">
+        <v>449</v>
+      </c>
+      <c r="I90" t="s">
+        <v>450</v>
+      </c>
+      <c r="J90" t="s">
+        <v>450</v>
+      </c>
+      <c r="K90" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" t="s">
+        <v>304</v>
+      </c>
+      <c r="G91" t="s">
+        <v>430</v>
+      </c>
+      <c r="H91" t="s">
+        <v>449</v>
+      </c>
+      <c r="I91" t="s">
+        <v>450</v>
+      </c>
+      <c r="J91" t="s">
+        <v>450</v>
+      </c>
+      <c r="K91" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" t="s">
+        <v>305</v>
+      </c>
+      <c r="G92" t="s">
+        <v>444</v>
+      </c>
+      <c r="H92" t="s">
+        <v>449</v>
+      </c>
+      <c r="I92" t="s">
+        <v>450</v>
+      </c>
+      <c r="J92" t="s">
+        <v>450</v>
+      </c>
+      <c r="K92" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" t="s">
+        <v>306</v>
+      </c>
+      <c r="G93" t="s">
+        <v>444</v>
+      </c>
+      <c r="H93" t="s">
+        <v>449</v>
+      </c>
+      <c r="I93" t="s">
+        <v>450</v>
+      </c>
+      <c r="J93" t="s">
+        <v>450</v>
+      </c>
+      <c r="K93" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" t="s">
+        <v>307</v>
+      </c>
+      <c r="G94" t="s">
+        <v>444</v>
+      </c>
+      <c r="H94" t="s">
+        <v>449</v>
+      </c>
+      <c r="I94" t="s">
+        <v>450</v>
+      </c>
+      <c r="J94" t="s">
+        <v>450</v>
+      </c>
+      <c r="K94" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" t="s">
+        <v>308</v>
+      </c>
+      <c r="G95" t="s">
+        <v>430</v>
+      </c>
+      <c r="H95" t="s">
+        <v>449</v>
+      </c>
+      <c r="I95" t="s">
+        <v>450</v>
+      </c>
+      <c r="J95" t="s">
+        <v>450</v>
+      </c>
+      <c r="K95" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" t="s">
+        <v>309</v>
+      </c>
+      <c r="G96" t="s">
+        <v>430</v>
+      </c>
+      <c r="H96" t="s">
+        <v>449</v>
+      </c>
+      <c r="J96" t="s">
+        <v>450</v>
+      </c>
+      <c r="K96" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" t="s">
+        <v>310</v>
+      </c>
+      <c r="G97" t="s">
+        <v>430</v>
+      </c>
+      <c r="H97" t="s">
+        <v>449</v>
+      </c>
+      <c r="J97" t="s">
+        <v>450</v>
+      </c>
+      <c r="K97" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" t="s">
+        <v>311</v>
+      </c>
+      <c r="G98" t="s">
+        <v>430</v>
+      </c>
+      <c r="H98" t="s">
+        <v>449</v>
+      </c>
+      <c r="J98" t="s">
+        <v>450</v>
+      </c>
+      <c r="K98" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99" t="s">
+        <v>312</v>
+      </c>
+      <c r="G99" t="s">
+        <v>430</v>
+      </c>
+      <c r="H99" t="s">
+        <v>449</v>
+      </c>
+      <c r="J99" t="s">
+        <v>450</v>
+      </c>
+      <c r="K99" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="C100" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" t="s">
+        <v>313</v>
+      </c>
+      <c r="G100" t="s">
+        <v>445</v>
+      </c>
+      <c r="H100" t="s">
+        <v>449</v>
+      </c>
+      <c r="J100" t="s">
+        <v>450</v>
+      </c>
+      <c r="K100" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" t="s">
+        <v>314</v>
+      </c>
+      <c r="G101" t="s">
+        <v>430</v>
+      </c>
+      <c r="H101" t="s">
+        <v>449</v>
+      </c>
+      <c r="J101" t="s">
+        <v>450</v>
+      </c>
+      <c r="K101" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" t="s">
+        <v>315</v>
+      </c>
+      <c r="G102" t="s">
+        <v>430</v>
+      </c>
+      <c r="H102" t="s">
+        <v>449</v>
+      </c>
+      <c r="J102" t="s">
+        <v>450</v>
+      </c>
+      <c r="K102" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="C103" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" t="s">
+        <v>316</v>
+      </c>
+      <c r="G103" t="s">
+        <v>430</v>
+      </c>
+      <c r="H103" t="s">
+        <v>449</v>
+      </c>
+      <c r="J103" t="s">
+        <v>450</v>
+      </c>
+      <c r="K103" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" t="s">
+        <v>317</v>
+      </c>
+      <c r="G104" t="s">
+        <v>430</v>
+      </c>
+      <c r="H104" t="s">
+        <v>449</v>
+      </c>
+      <c r="J104" t="s">
+        <v>450</v>
+      </c>
+      <c r="K104" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>35</v>
+      </c>
+      <c r="D105" t="s">
+        <v>318</v>
+      </c>
+      <c r="G105" t="s">
+        <v>438</v>
+      </c>
+      <c r="H105" t="s">
+        <v>449</v>
+      </c>
+      <c r="J105" t="s">
+        <v>450</v>
+      </c>
+      <c r="K105" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="C106" t="s">
+        <v>36</v>
+      </c>
+      <c r="D106" t="s">
+        <v>319</v>
+      </c>
+      <c r="G106" t="s">
+        <v>430</v>
+      </c>
+      <c r="H106" t="s">
+        <v>449</v>
+      </c>
+      <c r="J106" t="s">
+        <v>450</v>
+      </c>
+      <c r="K106" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="C107" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" t="s">
+        <v>320</v>
+      </c>
+      <c r="G107" t="s">
+        <v>430</v>
+      </c>
+      <c r="H107" t="s">
+        <v>449</v>
+      </c>
+      <c r="J107" t="s">
+        <v>450</v>
+      </c>
+      <c r="K107" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108" t="s">
+        <v>321</v>
+      </c>
+      <c r="G108" t="s">
+        <v>430</v>
+      </c>
+      <c r="H108" t="s">
+        <v>449</v>
+      </c>
+      <c r="J108" t="s">
+        <v>450</v>
+      </c>
+      <c r="K108" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="C109" t="s">
+        <v>39</v>
+      </c>
+      <c r="D109" t="s">
+        <v>322</v>
+      </c>
+      <c r="G109" t="s">
+        <v>432</v>
+      </c>
+      <c r="H109" t="s">
+        <v>449</v>
+      </c>
+      <c r="J109" t="s">
+        <v>450</v>
+      </c>
+      <c r="K109" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="C110" t="s">
+        <v>40</v>
+      </c>
+      <c r="D110" t="s">
+        <v>323</v>
+      </c>
+      <c r="G110" t="s">
+        <v>430</v>
+      </c>
+      <c r="H110" t="s">
+        <v>449</v>
+      </c>
+      <c r="J110" t="s">
+        <v>450</v>
+      </c>
+      <c r="K110" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="C111" t="s">
+        <v>41</v>
+      </c>
+      <c r="D111" t="s">
+        <v>324</v>
+      </c>
+      <c r="G111" t="s">
+        <v>434</v>
+      </c>
+      <c r="H111" t="s">
+        <v>449</v>
+      </c>
+      <c r="J111" t="s">
+        <v>450</v>
+      </c>
+      <c r="K111" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="C112" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112" t="s">
+        <v>325</v>
+      </c>
+      <c r="G112" t="s">
+        <v>430</v>
+      </c>
+      <c r="H112" t="s">
+        <v>449</v>
+      </c>
+      <c r="J112" t="s">
+        <v>450</v>
+      </c>
+      <c r="K112" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="C113" t="s">
+        <v>43</v>
+      </c>
+      <c r="D113" t="s">
+        <v>326</v>
+      </c>
+      <c r="G113" t="s">
+        <v>430</v>
+      </c>
+      <c r="H113" t="s">
+        <v>449</v>
+      </c>
+      <c r="J113" t="s">
+        <v>450</v>
+      </c>
+      <c r="K113" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="C114" t="s">
+        <v>44</v>
+      </c>
+      <c r="D114" t="s">
+        <v>327</v>
+      </c>
+      <c r="G114" t="s">
+        <v>430</v>
+      </c>
+      <c r="H114" t="s">
+        <v>449</v>
+      </c>
+      <c r="J114" t="s">
+        <v>450</v>
+      </c>
+      <c r="K114" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="C115" t="s">
+        <v>45</v>
+      </c>
+      <c r="D115" t="s">
+        <v>328</v>
+      </c>
+      <c r="G115" t="s">
+        <v>430</v>
+      </c>
+      <c r="H115" t="s">
+        <v>449</v>
+      </c>
+      <c r="J115" t="s">
+        <v>450</v>
+      </c>
+      <c r="K115" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="C116" t="s">
+        <v>46</v>
+      </c>
+      <c r="D116" t="s">
+        <v>329</v>
+      </c>
+      <c r="G116" t="s">
+        <v>430</v>
+      </c>
+      <c r="H116" t="s">
+        <v>449</v>
+      </c>
+      <c r="J116" t="s">
+        <v>450</v>
+      </c>
+      <c r="K116" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="C117" t="s">
+        <v>47</v>
+      </c>
+      <c r="D117" t="s">
+        <v>330</v>
+      </c>
+      <c r="G117" t="s">
+        <v>430</v>
+      </c>
+      <c r="H117" t="s">
+        <v>449</v>
+      </c>
+      <c r="J117" t="s">
+        <v>450</v>
+      </c>
+      <c r="K117" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="C118" t="s">
+        <v>48</v>
+      </c>
+      <c r="D118" t="s">
+        <v>331</v>
+      </c>
+      <c r="G118" t="s">
+        <v>430</v>
+      </c>
+      <c r="H118" t="s">
+        <v>449</v>
+      </c>
+      <c r="J118" t="s">
+        <v>450</v>
+      </c>
+      <c r="K118" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="C119" t="s">
+        <v>49</v>
+      </c>
+      <c r="D119" t="s">
+        <v>332</v>
+      </c>
+      <c r="G119" t="s">
+        <v>430</v>
+      </c>
+      <c r="H119" t="s">
+        <v>449</v>
+      </c>
+      <c r="I119" t="s">
+        <v>450</v>
+      </c>
+      <c r="J119" t="s">
+        <v>450</v>
+      </c>
+      <c r="K119" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="C120" t="s">
+        <v>50</v>
+      </c>
+      <c r="D120" t="s">
+        <v>333</v>
+      </c>
+      <c r="G120" t="s">
+        <v>430</v>
+      </c>
+      <c r="H120" t="s">
+        <v>449</v>
+      </c>
+      <c r="I120" t="s">
+        <v>450</v>
+      </c>
+      <c r="J120" t="s">
+        <v>450</v>
+      </c>
+      <c r="K120" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="C121" t="s">
+        <v>51</v>
+      </c>
+      <c r="D121" t="s">
+        <v>334</v>
+      </c>
+      <c r="G121" t="s">
+        <v>430</v>
+      </c>
+      <c r="H121" t="s">
+        <v>449</v>
+      </c>
+      <c r="I121" t="s">
+        <v>450</v>
+      </c>
+      <c r="J121" t="s">
+        <v>450</v>
+      </c>
+      <c r="K121" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="C122" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" t="s">
+        <v>335</v>
+      </c>
+      <c r="G122" t="s">
+        <v>431</v>
+      </c>
+      <c r="H122" t="s">
+        <v>449</v>
+      </c>
+      <c r="I122" t="s">
+        <v>450</v>
+      </c>
+      <c r="J122" t="s">
+        <v>450</v>
+      </c>
+      <c r="K122" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="C123" t="s">
+        <v>53</v>
+      </c>
+      <c r="D123" t="s">
+        <v>336</v>
+      </c>
+      <c r="G123" t="s">
+        <v>430</v>
+      </c>
+      <c r="H123" t="s">
+        <v>449</v>
+      </c>
+      <c r="I123" t="s">
+        <v>450</v>
+      </c>
+      <c r="J123" t="s">
+        <v>450</v>
+      </c>
+      <c r="K123" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="C124" t="s">
+        <v>54</v>
+      </c>
+      <c r="D124" t="s">
+        <v>337</v>
+      </c>
+      <c r="G124" t="s">
+        <v>430</v>
+      </c>
+      <c r="H124" t="s">
+        <v>449</v>
+      </c>
+      <c r="I124" t="s">
+        <v>450</v>
+      </c>
+      <c r="J124" t="s">
+        <v>450</v>
+      </c>
+      <c r="K124" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
+        <v>55</v>
+      </c>
+      <c r="D125" t="s">
+        <v>338</v>
+      </c>
+      <c r="G125" t="s">
+        <v>430</v>
+      </c>
+      <c r="H125" t="s">
+        <v>449</v>
+      </c>
+      <c r="I125" t="s">
+        <v>450</v>
+      </c>
+      <c r="J125" t="s">
+        <v>450</v>
+      </c>
+      <c r="K125" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="C126" t="s">
+        <v>56</v>
+      </c>
+      <c r="D126" t="s">
+        <v>339</v>
+      </c>
+      <c r="G126" t="s">
+        <v>432</v>
+      </c>
+      <c r="H126" t="s">
+        <v>449</v>
+      </c>
+      <c r="I126" t="s">
+        <v>450</v>
+      </c>
+      <c r="J126" t="s">
+        <v>450</v>
+      </c>
+      <c r="K126" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="C127" t="s">
+        <v>57</v>
+      </c>
+      <c r="D127" t="s">
+        <v>340</v>
+      </c>
+      <c r="G127" t="s">
+        <v>432</v>
+      </c>
+      <c r="H127" t="s">
+        <v>449</v>
+      </c>
+      <c r="I127" t="s">
+        <v>450</v>
+      </c>
+      <c r="J127" t="s">
+        <v>450</v>
+      </c>
+      <c r="K127" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="C128" t="s">
+        <v>58</v>
+      </c>
+      <c r="D128" t="s">
+        <v>341</v>
+      </c>
+      <c r="G128" t="s">
+        <v>432</v>
+      </c>
+      <c r="H128" t="s">
+        <v>449</v>
+      </c>
+      <c r="I128" t="s">
+        <v>450</v>
+      </c>
+      <c r="J128" t="s">
+        <v>450</v>
+      </c>
+      <c r="K128" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="C129" t="s">
+        <v>59</v>
+      </c>
+      <c r="D129" t="s">
+        <v>342</v>
+      </c>
+      <c r="G129" t="s">
+        <v>432</v>
+      </c>
+      <c r="H129" t="s">
+        <v>449</v>
+      </c>
+      <c r="J129" t="s">
+        <v>450</v>
+      </c>
+      <c r="K129" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="C130" t="s">
+        <v>60</v>
+      </c>
+      <c r="D130" t="s">
+        <v>343</v>
+      </c>
+      <c r="G130" t="s">
+        <v>446</v>
+      </c>
+      <c r="H130" t="s">
+        <v>449</v>
+      </c>
+      <c r="I130" t="s">
+        <v>450</v>
+      </c>
+      <c r="J130" t="s">
+        <v>450</v>
+      </c>
+      <c r="K130" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="C131" t="s">
+        <v>61</v>
+      </c>
+      <c r="D131" t="s">
+        <v>344</v>
+      </c>
+      <c r="G131" t="s">
+        <v>440</v>
+      </c>
+      <c r="H131" t="s">
+        <v>449</v>
+      </c>
+      <c r="I131" t="s">
+        <v>450</v>
+      </c>
+      <c r="J131" t="s">
+        <v>450</v>
+      </c>
+      <c r="K131" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="C132" t="s">
+        <v>62</v>
+      </c>
+      <c r="D132" t="s">
+        <v>345</v>
+      </c>
+      <c r="G132" t="s">
+        <v>437</v>
+      </c>
+      <c r="H132" t="s">
+        <v>449</v>
+      </c>
+      <c r="I132" t="s">
+        <v>450</v>
+      </c>
+      <c r="J132" t="s">
+        <v>450</v>
+      </c>
+      <c r="K132" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>346</v>
+      </c>
+      <c r="G133" t="s">
+        <v>434</v>
+      </c>
+      <c r="H133" t="s">
+        <v>449</v>
+      </c>
+      <c r="I133" t="s">
+        <v>450</v>
+      </c>
+      <c r="J133" t="s">
+        <v>450</v>
+      </c>
+      <c r="K133" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="C134" t="s">
+        <v>64</v>
+      </c>
+      <c r="D134" t="s">
+        <v>347</v>
+      </c>
+      <c r="G134" t="s">
+        <v>434</v>
+      </c>
+      <c r="H134" t="s">
+        <v>449</v>
+      </c>
+      <c r="J134" t="s">
+        <v>450</v>
+      </c>
+      <c r="K134" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="C135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D135" t="s">
+        <v>348</v>
+      </c>
+      <c r="G135" t="s">
+        <v>428</v>
+      </c>
+      <c r="H135" t="s">
+        <v>449</v>
+      </c>
+      <c r="I135" t="s">
+        <v>450</v>
+      </c>
+      <c r="J135" t="s">
+        <v>450</v>
+      </c>
+      <c r="K135" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="C136" t="s">
+        <v>66</v>
+      </c>
+      <c r="D136" t="s">
+        <v>349</v>
+      </c>
+      <c r="G136" t="s">
+        <v>432</v>
+      </c>
+      <c r="H136" t="s">
+        <v>449</v>
+      </c>
+      <c r="I136" t="s">
+        <v>450</v>
+      </c>
+      <c r="J136" t="s">
+        <v>450</v>
+      </c>
+      <c r="K136" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="C137" t="s">
+        <v>67</v>
+      </c>
+      <c r="D137" t="s">
+        <v>350</v>
+      </c>
+      <c r="G137" t="s">
+        <v>434</v>
+      </c>
+      <c r="H137" t="s">
+        <v>449</v>
+      </c>
+      <c r="I137" t="s">
+        <v>450</v>
+      </c>
+      <c r="J137" t="s">
+        <v>450</v>
+      </c>
+      <c r="K137" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>351</v>
+      </c>
+      <c r="G138" t="s">
+        <v>432</v>
+      </c>
+      <c r="H138" t="s">
+        <v>449</v>
+      </c>
+      <c r="I138" t="s">
+        <v>450</v>
+      </c>
+      <c r="J138" t="s">
+        <v>450</v>
+      </c>
+      <c r="K138" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="C139" t="s">
+        <v>69</v>
+      </c>
+      <c r="D139" t="s">
+        <v>352</v>
+      </c>
+      <c r="G139" t="s">
+        <v>432</v>
+      </c>
+      <c r="H139" t="s">
+        <v>449</v>
+      </c>
+      <c r="I139" t="s">
+        <v>450</v>
+      </c>
+      <c r="J139" t="s">
+        <v>450</v>
+      </c>
+      <c r="K139" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="C140" t="s">
+        <v>70</v>
+      </c>
+      <c r="D140" t="s">
+        <v>353</v>
+      </c>
+      <c r="G140" t="s">
+        <v>434</v>
+      </c>
+      <c r="H140" t="s">
+        <v>449</v>
+      </c>
+      <c r="J140" t="s">
+        <v>450</v>
+      </c>
+      <c r="K140" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="C141" t="s">
+        <v>71</v>
+      </c>
+      <c r="D141" t="s">
+        <v>354</v>
+      </c>
+      <c r="G141" t="s">
+        <v>434</v>
+      </c>
+      <c r="H141" t="s">
+        <v>449</v>
+      </c>
+      <c r="J141" t="s">
+        <v>450</v>
+      </c>
+      <c r="K141" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="C142" t="s">
+        <v>72</v>
+      </c>
+      <c r="D142" t="s">
+        <v>355</v>
+      </c>
+      <c r="G142" t="s">
+        <v>447</v>
+      </c>
+      <c r="H142" t="s">
+        <v>449</v>
+      </c>
+      <c r="J142" t="s">
+        <v>450</v>
+      </c>
+      <c r="K142" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="C143" t="s">
+        <v>73</v>
+      </c>
+      <c r="D143" t="s">
+        <v>356</v>
+      </c>
+      <c r="G143" t="s">
+        <v>447</v>
+      </c>
+      <c r="H143" t="s">
+        <v>449</v>
+      </c>
+      <c r="J143" t="s">
+        <v>450</v>
+      </c>
+      <c r="K143" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="C144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D144" t="s">
+        <v>357</v>
+      </c>
+      <c r="G144" t="s">
+        <v>447</v>
+      </c>
+      <c r="H144" t="s">
+        <v>449</v>
+      </c>
+      <c r="J144" t="s">
+        <v>450</v>
+      </c>
+      <c r="K144" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="C145" t="s">
+        <v>75</v>
+      </c>
+      <c r="D145" t="s">
+        <v>358</v>
+      </c>
+      <c r="G145" t="s">
+        <v>447</v>
+      </c>
+      <c r="H145" t="s">
+        <v>449</v>
+      </c>
+      <c r="J145" t="s">
+        <v>450</v>
+      </c>
+      <c r="K145" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="C146" t="s">
+        <v>76</v>
+      </c>
+      <c r="D146" t="s">
+        <v>359</v>
+      </c>
+      <c r="G146" t="s">
+        <v>447</v>
+      </c>
+      <c r="H146" t="s">
+        <v>449</v>
+      </c>
+      <c r="J146" t="s">
+        <v>450</v>
+      </c>
+      <c r="K146" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="C147" t="s">
+        <v>77</v>
+      </c>
+      <c r="D147" t="s">
+        <v>360</v>
+      </c>
+      <c r="G147" t="s">
+        <v>447</v>
+      </c>
+      <c r="H147" t="s">
+        <v>449</v>
+      </c>
+      <c r="J147" t="s">
+        <v>450</v>
+      </c>
+      <c r="K147" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="C148" t="s">
+        <v>78</v>
+      </c>
+      <c r="D148" t="s">
+        <v>361</v>
+      </c>
+      <c r="G148" t="s">
+        <v>447</v>
+      </c>
+      <c r="H148" t="s">
+        <v>449</v>
+      </c>
+      <c r="J148" t="s">
+        <v>450</v>
+      </c>
+      <c r="K148" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="C149" t="s">
+        <v>79</v>
+      </c>
+      <c r="D149" t="s">
+        <v>362</v>
+      </c>
+      <c r="G149" t="s">
+        <v>447</v>
+      </c>
+      <c r="H149" t="s">
+        <v>449</v>
+      </c>
+      <c r="J149" t="s">
+        <v>450</v>
+      </c>
+      <c r="K149" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="C150" t="s">
+        <v>80</v>
+      </c>
+      <c r="D150" t="s">
+        <v>363</v>
+      </c>
+      <c r="G150" t="s">
+        <v>447</v>
+      </c>
+      <c r="H150" t="s">
+        <v>449</v>
+      </c>
+      <c r="J150" t="s">
+        <v>450</v>
+      </c>
+      <c r="K150" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="C151" t="s">
+        <v>81</v>
+      </c>
+      <c r="D151" t="s">
+        <v>364</v>
+      </c>
+      <c r="G151" t="s">
+        <v>443</v>
+      </c>
+      <c r="H151" t="s">
+        <v>449</v>
+      </c>
+      <c r="I151" t="s">
+        <v>450</v>
+      </c>
+      <c r="J151" t="s">
+        <v>450</v>
+      </c>
+      <c r="K151" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="C152" t="s">
+        <v>82</v>
+      </c>
+      <c r="D152" t="s">
+        <v>365</v>
+      </c>
+      <c r="G152" t="s">
+        <v>430</v>
+      </c>
+      <c r="H152" t="s">
+        <v>449</v>
+      </c>
+      <c r="I152" t="s">
+        <v>450</v>
+      </c>
+      <c r="J152" t="s">
+        <v>450</v>
+      </c>
+      <c r="K152" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="C153" t="s">
+        <v>83</v>
+      </c>
+      <c r="D153" t="s">
+        <v>366</v>
+      </c>
+      <c r="G153" t="s">
+        <v>432</v>
+      </c>
+      <c r="H153" t="s">
+        <v>449</v>
+      </c>
+      <c r="I153" t="s">
+        <v>450</v>
+      </c>
+      <c r="J153" t="s">
+        <v>450</v>
+      </c>
+      <c r="K153" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="C154" t="s">
+        <v>84</v>
+      </c>
+      <c r="D154" t="s">
+        <v>367</v>
+      </c>
+      <c r="G154" t="s">
+        <v>432</v>
+      </c>
+      <c r="H154" t="s">
+        <v>449</v>
+      </c>
+      <c r="I154" t="s">
+        <v>450</v>
+      </c>
+      <c r="J154" t="s">
+        <v>450</v>
+      </c>
+      <c r="K154" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="C155" t="s">
+        <v>85</v>
+      </c>
+      <c r="D155" t="s">
+        <v>368</v>
+      </c>
+      <c r="G155" t="s">
+        <v>441</v>
+      </c>
+      <c r="H155" t="s">
+        <v>449</v>
+      </c>
+      <c r="J155" t="s">
+        <v>450</v>
+      </c>
+      <c r="K155" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="C156" t="s">
+        <v>86</v>
+      </c>
+      <c r="D156" t="s">
+        <v>369</v>
+      </c>
+      <c r="G156" t="s">
+        <v>430</v>
+      </c>
+      <c r="H156" t="s">
+        <v>449</v>
+      </c>
+      <c r="I156" t="s">
+        <v>450</v>
+      </c>
+      <c r="J156" t="s">
+        <v>450</v>
+      </c>
+      <c r="K156" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="C157" t="s">
+        <v>87</v>
+      </c>
+      <c r="D157" t="s">
+        <v>370</v>
+      </c>
+      <c r="G157" t="s">
+        <v>432</v>
+      </c>
+      <c r="H157" t="s">
+        <v>449</v>
+      </c>
+      <c r="I157" t="s">
+        <v>450</v>
+      </c>
+      <c r="J157" t="s">
+        <v>450</v>
+      </c>
+      <c r="K157" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="C158" t="s">
+        <v>88</v>
+      </c>
+      <c r="D158" t="s">
+        <v>371</v>
+      </c>
+      <c r="G158" t="s">
+        <v>432</v>
+      </c>
+      <c r="H158" t="s">
+        <v>449</v>
+      </c>
+      <c r="I158" t="s">
+        <v>450</v>
+      </c>
+      <c r="J158" t="s">
+        <v>450</v>
+      </c>
+      <c r="K158" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="C159" t="s">
+        <v>89</v>
+      </c>
+      <c r="D159" t="s">
+        <v>372</v>
+      </c>
+      <c r="G159" t="s">
+        <v>432</v>
+      </c>
+      <c r="H159" t="s">
+        <v>449</v>
+      </c>
+      <c r="I159" t="s">
+        <v>450</v>
+      </c>
+      <c r="J159" t="s">
+        <v>450</v>
+      </c>
+      <c r="K159" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="F79" t="s">
+      <c r="C160" t="s">
+        <v>90</v>
+      </c>
+      <c r="D160" t="s">
+        <v>373</v>
+      </c>
+      <c r="G160" t="s">
+        <v>440</v>
+      </c>
+      <c r="H160" t="s">
+        <v>449</v>
+      </c>
+      <c r="I160" t="s">
+        <v>450</v>
+      </c>
+      <c r="J160" t="s">
+        <v>450</v>
+      </c>
+      <c r="K160" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="C161" t="s">
+        <v>91</v>
+      </c>
+      <c r="D161" t="s">
+        <v>374</v>
+      </c>
+      <c r="G161" t="s">
+        <v>432</v>
+      </c>
+      <c r="H161" t="s">
+        <v>449</v>
+      </c>
+      <c r="I161" t="s">
+        <v>450</v>
+      </c>
+      <c r="J161" t="s">
+        <v>450</v>
+      </c>
+      <c r="K161" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="C162" t="s">
+        <v>92</v>
+      </c>
+      <c r="D162" t="s">
+        <v>375</v>
+      </c>
+      <c r="G162" t="s">
+        <v>427</v>
+      </c>
+      <c r="H162" t="s">
+        <v>449</v>
+      </c>
+      <c r="I162" t="s">
+        <v>450</v>
+      </c>
+      <c r="J162" t="s">
+        <v>450</v>
+      </c>
+      <c r="K162" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="C163" t="s">
+        <v>93</v>
+      </c>
+      <c r="D163" t="s">
+        <v>376</v>
+      </c>
+      <c r="G163" t="s">
+        <v>448</v>
+      </c>
+      <c r="H163" t="s">
+        <v>449</v>
+      </c>
+      <c r="I163" t="s">
+        <v>450</v>
+      </c>
+      <c r="J163" t="s">
+        <v>450</v>
+      </c>
+      <c r="K163" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="C164" t="s">
+        <v>94</v>
+      </c>
+      <c r="D164" t="s">
+        <v>377</v>
+      </c>
+      <c r="G164" t="s">
+        <v>432</v>
+      </c>
+      <c r="H164" t="s">
+        <v>449</v>
+      </c>
+      <c r="I164" t="s">
+        <v>450</v>
+      </c>
+      <c r="J164" t="s">
+        <v>450</v>
+      </c>
+      <c r="K164" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="C165" t="s">
+        <v>95</v>
+      </c>
+      <c r="D165" t="s">
+        <v>378</v>
+      </c>
+      <c r="G165" t="s">
+        <v>432</v>
+      </c>
+      <c r="H165" t="s">
+        <v>449</v>
+      </c>
+      <c r="I165" t="s">
+        <v>450</v>
+      </c>
+      <c r="J165" t="s">
+        <v>450</v>
+      </c>
+      <c r="K165" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="C166" t="s">
+        <v>96</v>
+      </c>
+      <c r="D166" t="s">
+        <v>379</v>
+      </c>
+      <c r="G166" t="s">
+        <v>441</v>
+      </c>
+      <c r="H166" t="s">
+        <v>449</v>
+      </c>
+      <c r="I166" t="s">
+        <v>450</v>
+      </c>
+      <c r="J166" t="s">
+        <v>450</v>
+      </c>
+      <c r="K166" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="C167" t="s">
+        <v>97</v>
+      </c>
+      <c r="D167" t="s">
+        <v>380</v>
+      </c>
+      <c r="G167" t="s">
+        <v>439</v>
+      </c>
+      <c r="H167" t="s">
+        <v>449</v>
+      </c>
+      <c r="I167" t="s">
+        <v>450</v>
+      </c>
+      <c r="J167" t="s">
+        <v>450</v>
+      </c>
+      <c r="K167" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="C168" t="s">
+        <v>98</v>
+      </c>
+      <c r="D168" t="s">
+        <v>381</v>
+      </c>
+      <c r="G168" t="s">
+        <v>428</v>
+      </c>
+      <c r="H168" t="s">
+        <v>449</v>
+      </c>
+      <c r="I168" t="s">
+        <v>450</v>
+      </c>
+      <c r="J168" t="s">
+        <v>450</v>
+      </c>
+      <c r="K168" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="C169" t="s">
+        <v>99</v>
+      </c>
+      <c r="D169" t="s">
+        <v>382</v>
+      </c>
+      <c r="G169" t="s">
+        <v>432</v>
+      </c>
+      <c r="H169" t="s">
+        <v>449</v>
+      </c>
+      <c r="I169" t="s">
+        <v>450</v>
+      </c>
+      <c r="J169" t="s">
+        <v>450</v>
+      </c>
+      <c r="K169" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="C170" t="s">
+        <v>100</v>
+      </c>
+      <c r="D170" t="s">
+        <v>383</v>
+      </c>
+      <c r="G170" t="s">
+        <v>432</v>
+      </c>
+      <c r="H170" t="s">
+        <v>449</v>
+      </c>
+      <c r="I170" t="s">
+        <v>450</v>
+      </c>
+      <c r="J170" t="s">
+        <v>450</v>
+      </c>
+      <c r="K170" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="C171" t="s">
+        <v>101</v>
+      </c>
+      <c r="D171" t="s">
+        <v>384</v>
+      </c>
+      <c r="G171" t="s">
+        <v>428</v>
+      </c>
+      <c r="H171" t="s">
+        <v>449</v>
+      </c>
+      <c r="I171" t="s">
+        <v>450</v>
+      </c>
+      <c r="J171" t="s">
+        <v>450</v>
+      </c>
+      <c r="K171" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="C172" t="s">
+        <v>102</v>
+      </c>
+      <c r="D172" t="s">
+        <v>385</v>
+      </c>
+      <c r="G172" t="s">
+        <v>434</v>
+      </c>
+      <c r="H172" t="s">
+        <v>449</v>
+      </c>
+      <c r="J172" t="s">
+        <v>450</v>
+      </c>
+      <c r="K172" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="C173" t="s">
+        <v>103</v>
+      </c>
+      <c r="D173" t="s">
+        <v>386</v>
+      </c>
+      <c r="G173" t="s">
+        <v>443</v>
+      </c>
+      <c r="H173" t="s">
+        <v>449</v>
+      </c>
+      <c r="I173" t="s">
+        <v>450</v>
+      </c>
+      <c r="J173" t="s">
+        <v>450</v>
+      </c>
+      <c r="K173" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="C174" t="s">
+        <v>104</v>
+      </c>
+      <c r="D174" t="s">
+        <v>387</v>
+      </c>
+      <c r="G174" t="s">
+        <v>432</v>
+      </c>
+      <c r="H174" t="s">
+        <v>449</v>
+      </c>
+      <c r="I174" t="s">
+        <v>450</v>
+      </c>
+      <c r="J174" t="s">
+        <v>450</v>
+      </c>
+      <c r="K174" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="C175" t="s">
+        <v>105</v>
+      </c>
+      <c r="D175" t="s">
+        <v>388</v>
+      </c>
+      <c r="G175" t="s">
+        <v>432</v>
+      </c>
+      <c r="H175" t="s">
+        <v>449</v>
+      </c>
+      <c r="I175" t="s">
+        <v>450</v>
+      </c>
+      <c r="J175" t="s">
+        <v>450</v>
+      </c>
+      <c r="K175" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="C176" t="s">
+        <v>106</v>
+      </c>
+      <c r="D176" t="s">
+        <v>389</v>
+      </c>
+      <c r="G176" t="s">
+        <v>432</v>
+      </c>
+      <c r="H176" t="s">
+        <v>449</v>
+      </c>
+      <c r="I176" t="s">
+        <v>450</v>
+      </c>
+      <c r="J176" t="s">
+        <v>450</v>
+      </c>
+      <c r="K176" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="G79" t="s">
+      <c r="C177" t="s">
+        <v>107</v>
+      </c>
+      <c r="D177" t="s">
+        <v>390</v>
+      </c>
+      <c r="G177" t="s">
+        <v>439</v>
+      </c>
+      <c r="H177" t="s">
+        <v>449</v>
+      </c>
+      <c r="I177" t="s">
+        <v>450</v>
+      </c>
+      <c r="J177" t="s">
+        <v>450</v>
+      </c>
+      <c r="K177" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="C178" t="s">
+        <v>108</v>
+      </c>
+      <c r="D178" t="s">
+        <v>391</v>
+      </c>
+      <c r="G178" t="s">
+        <v>426</v>
+      </c>
+      <c r="H178" t="s">
+        <v>449</v>
+      </c>
+      <c r="I178" t="s">
+        <v>450</v>
+      </c>
+      <c r="J178" t="s">
+        <v>450</v>
+      </c>
+      <c r="K178" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="C179" t="s">
+        <v>109</v>
+      </c>
+      <c r="D179" t="s">
+        <v>392</v>
+      </c>
+      <c r="G179" t="s">
+        <v>432</v>
+      </c>
+      <c r="H179" t="s">
+        <v>449</v>
+      </c>
+      <c r="I179" t="s">
+        <v>450</v>
+      </c>
+      <c r="J179" t="s">
+        <v>450</v>
+      </c>
+      <c r="K179" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="C180" t="s">
+        <v>110</v>
+      </c>
+      <c r="D180" t="s">
+        <v>393</v>
+      </c>
+      <c r="G180" t="s">
+        <v>432</v>
+      </c>
+      <c r="H180" t="s">
+        <v>449</v>
+      </c>
+      <c r="I180" t="s">
+        <v>450</v>
+      </c>
+      <c r="J180" t="s">
+        <v>450</v>
+      </c>
+      <c r="K180" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="C181" t="s">
+        <v>111</v>
+      </c>
+      <c r="D181" t="s">
+        <v>394</v>
+      </c>
+      <c r="G181" t="s">
+        <v>433</v>
+      </c>
+      <c r="H181" t="s">
+        <v>449</v>
+      </c>
+      <c r="I181" t="s">
+        <v>450</v>
+      </c>
+      <c r="J181" t="s">
+        <v>450</v>
+      </c>
+      <c r="K181" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="C182" t="s">
+        <v>112</v>
+      </c>
+      <c r="D182" t="s">
+        <v>395</v>
+      </c>
+      <c r="G182" t="s">
+        <v>426</v>
+      </c>
+      <c r="H182" t="s">
+        <v>449</v>
+      </c>
+      <c r="I182" t="s">
+        <v>450</v>
+      </c>
+      <c r="J182" t="s">
+        <v>450</v>
+      </c>
+      <c r="K182" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="J79" t="s">
+      <c r="C183" t="s">
+        <v>113</v>
+      </c>
+      <c r="D183" t="s">
+        <v>396</v>
+      </c>
+      <c r="G183" t="s">
+        <v>433</v>
+      </c>
+      <c r="H183" t="s">
+        <v>449</v>
+      </c>
+      <c r="I183" t="s">
+        <v>450</v>
+      </c>
+      <c r="J183" t="s">
+        <v>450</v>
+      </c>
+      <c r="K183" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="C184" t="s">
+        <v>114</v>
+      </c>
+      <c r="D184" t="s">
+        <v>397</v>
+      </c>
+      <c r="G184" t="s">
+        <v>429</v>
+      </c>
+      <c r="H184" t="s">
+        <v>449</v>
+      </c>
+      <c r="I184" t="s">
+        <v>450</v>
+      </c>
+      <c r="J184" t="s">
+        <v>450</v>
+      </c>
+      <c r="K184" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="C185" t="s">
+        <v>115</v>
+      </c>
+      <c r="D185" t="s">
+        <v>398</v>
+      </c>
+      <c r="G185" t="s">
+        <v>439</v>
+      </c>
+      <c r="H185" t="s">
+        <v>449</v>
+      </c>
+      <c r="I185" t="s">
+        <v>450</v>
+      </c>
+      <c r="J185" t="s">
+        <v>450</v>
+      </c>
+      <c r="K185" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="C186" t="s">
+        <v>116</v>
+      </c>
+      <c r="D186" t="s">
+        <v>399</v>
+      </c>
+      <c r="G186" t="s">
+        <v>443</v>
+      </c>
+      <c r="H186" t="s">
+        <v>449</v>
+      </c>
+      <c r="I186" t="s">
+        <v>450</v>
+      </c>
+      <c r="J186" t="s">
+        <v>450</v>
+      </c>
+      <c r="K186" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="C187" t="s">
+        <v>117</v>
+      </c>
+      <c r="D187" t="s">
+        <v>400</v>
+      </c>
+      <c r="G187" t="s">
+        <v>427</v>
+      </c>
+      <c r="H187" t="s">
+        <v>449</v>
+      </c>
+      <c r="I187" t="s">
+        <v>450</v>
+      </c>
+      <c r="J187" t="s">
+        <v>450</v>
+      </c>
+      <c r="K187" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="C188" t="s">
+        <v>118</v>
+      </c>
+      <c r="D188" t="s">
+        <v>401</v>
+      </c>
+      <c r="G188" t="s">
+        <v>436</v>
+      </c>
+      <c r="H188" t="s">
+        <v>449</v>
+      </c>
+      <c r="I188" t="s">
+        <v>450</v>
+      </c>
+      <c r="J188" t="s">
+        <v>450</v>
+      </c>
+      <c r="K188" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" s="1">
         <v>187</v>
+      </c>
+      <c r="C189" t="s">
+        <v>119</v>
+      </c>
+      <c r="D189" t="s">
+        <v>402</v>
+      </c>
+      <c r="G189" t="s">
+        <v>432</v>
+      </c>
+      <c r="H189" t="s">
+        <v>449</v>
+      </c>
+      <c r="I189" t="s">
+        <v>450</v>
+      </c>
+      <c r="J189" t="s">
+        <v>450</v>
+      </c>
+      <c r="K189" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="C190" t="s">
+        <v>120</v>
+      </c>
+      <c r="D190" t="s">
+        <v>403</v>
+      </c>
+      <c r="G190" t="s">
+        <v>427</v>
+      </c>
+      <c r="H190" t="s">
+        <v>449</v>
+      </c>
+      <c r="I190" t="s">
+        <v>450</v>
+      </c>
+      <c r="J190" t="s">
+        <v>450</v>
+      </c>
+      <c r="K190" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="C191" t="s">
+        <v>121</v>
+      </c>
+      <c r="D191" t="s">
+        <v>404</v>
+      </c>
+      <c r="G191" t="s">
+        <v>429</v>
+      </c>
+      <c r="H191" t="s">
+        <v>449</v>
+      </c>
+      <c r="I191" t="s">
+        <v>450</v>
+      </c>
+      <c r="J191" t="s">
+        <v>450</v>
+      </c>
+      <c r="K191" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="C192" t="s">
+        <v>122</v>
+      </c>
+      <c r="D192" t="s">
+        <v>405</v>
+      </c>
+      <c r="G192" t="s">
+        <v>433</v>
+      </c>
+      <c r="H192" t="s">
+        <v>449</v>
+      </c>
+      <c r="I192" t="s">
+        <v>450</v>
+      </c>
+      <c r="J192" t="s">
+        <v>450</v>
+      </c>
+      <c r="K192" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="C193" t="s">
+        <v>123</v>
+      </c>
+      <c r="D193" t="s">
+        <v>406</v>
+      </c>
+      <c r="G193" t="s">
+        <v>443</v>
+      </c>
+      <c r="H193" t="s">
+        <v>449</v>
+      </c>
+      <c r="I193" t="s">
+        <v>450</v>
+      </c>
+      <c r="J193" t="s">
+        <v>450</v>
+      </c>
+      <c r="K193" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="C194" t="s">
+        <v>124</v>
+      </c>
+      <c r="D194" t="s">
+        <v>407</v>
+      </c>
+      <c r="G194" t="s">
+        <v>434</v>
+      </c>
+      <c r="H194" t="s">
+        <v>449</v>
+      </c>
+      <c r="J194" t="s">
+        <v>450</v>
+      </c>
+      <c r="K194" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="C195" t="s">
+        <v>125</v>
+      </c>
+      <c r="D195" t="s">
+        <v>408</v>
+      </c>
+      <c r="G195" t="s">
+        <v>430</v>
+      </c>
+      <c r="H195" t="s">
+        <v>449</v>
+      </c>
+      <c r="I195" t="s">
+        <v>450</v>
+      </c>
+      <c r="J195" t="s">
+        <v>450</v>
+      </c>
+      <c r="K195" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="C196" t="s">
+        <v>126</v>
+      </c>
+      <c r="D196" t="s">
+        <v>409</v>
+      </c>
+      <c r="G196" t="s">
+        <v>430</v>
+      </c>
+      <c r="H196" t="s">
+        <v>449</v>
+      </c>
+      <c r="I196" t="s">
+        <v>450</v>
+      </c>
+      <c r="J196" t="s">
+        <v>450</v>
+      </c>
+      <c r="K196" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="C197" t="s">
+        <v>127</v>
+      </c>
+      <c r="D197" t="s">
+        <v>410</v>
+      </c>
+      <c r="G197" t="s">
+        <v>430</v>
+      </c>
+      <c r="H197" t="s">
+        <v>449</v>
+      </c>
+      <c r="I197" t="s">
+        <v>450</v>
+      </c>
+      <c r="J197" t="s">
+        <v>450</v>
+      </c>
+      <c r="K197" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="C198" t="s">
+        <v>128</v>
+      </c>
+      <c r="D198" t="s">
+        <v>411</v>
+      </c>
+      <c r="G198" t="s">
+        <v>448</v>
+      </c>
+      <c r="H198" t="s">
+        <v>449</v>
+      </c>
+      <c r="I198" t="s">
+        <v>450</v>
+      </c>
+      <c r="J198" t="s">
+        <v>450</v>
+      </c>
+      <c r="K198" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="C199" t="s">
+        <v>129</v>
+      </c>
+      <c r="D199" t="s">
+        <v>412</v>
+      </c>
+      <c r="G199" t="s">
+        <v>432</v>
+      </c>
+      <c r="H199" t="s">
+        <v>449</v>
+      </c>
+      <c r="I199" t="s">
+        <v>450</v>
+      </c>
+      <c r="J199" t="s">
+        <v>450</v>
+      </c>
+      <c r="K199" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="C200" t="s">
+        <v>130</v>
+      </c>
+      <c r="D200" t="s">
+        <v>413</v>
+      </c>
+      <c r="G200" t="s">
+        <v>440</v>
+      </c>
+      <c r="H200" t="s">
+        <v>449</v>
+      </c>
+      <c r="I200" t="s">
+        <v>450</v>
+      </c>
+      <c r="J200" t="s">
+        <v>450</v>
+      </c>
+      <c r="K200" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="C201" t="s">
+        <v>131</v>
+      </c>
+      <c r="D201" t="s">
+        <v>414</v>
+      </c>
+      <c r="G201" t="s">
+        <v>437</v>
+      </c>
+      <c r="H201" t="s">
+        <v>449</v>
+      </c>
+      <c r="I201" t="s">
+        <v>450</v>
+      </c>
+      <c r="J201" t="s">
+        <v>450</v>
+      </c>
+      <c r="K201" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="C202" t="s">
+        <v>132</v>
+      </c>
+      <c r="D202" t="s">
+        <v>216</v>
+      </c>
+      <c r="G202" t="s">
+        <v>426</v>
+      </c>
+      <c r="H202" t="s">
+        <v>449</v>
+      </c>
+      <c r="I202" t="s">
+        <v>450</v>
+      </c>
+      <c r="J202" t="s">
+        <v>450</v>
+      </c>
+      <c r="K202" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="C203" t="s">
+        <v>133</v>
+      </c>
+      <c r="D203" t="s">
+        <v>217</v>
+      </c>
+      <c r="G203" t="s">
+        <v>427</v>
+      </c>
+      <c r="H203" t="s">
+        <v>449</v>
+      </c>
+      <c r="I203" t="s">
+        <v>450</v>
+      </c>
+      <c r="J203" t="s">
+        <v>450</v>
+      </c>
+      <c r="K203" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="C204" t="s">
+        <v>134</v>
+      </c>
+      <c r="D204" t="s">
+        <v>218</v>
+      </c>
+      <c r="G204" t="s">
+        <v>428</v>
+      </c>
+      <c r="H204" t="s">
+        <v>449</v>
+      </c>
+      <c r="I204" t="s">
+        <v>450</v>
+      </c>
+      <c r="J204" t="s">
+        <v>450</v>
+      </c>
+      <c r="K204" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="C205" t="s">
+        <v>135</v>
+      </c>
+      <c r="D205" t="s">
+        <v>219</v>
+      </c>
+      <c r="G205" t="s">
+        <v>429</v>
+      </c>
+      <c r="H205" t="s">
+        <v>449</v>
+      </c>
+      <c r="I205" t="s">
+        <v>450</v>
+      </c>
+      <c r="J205" t="s">
+        <v>450</v>
+      </c>
+      <c r="K205" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="C206" t="s">
+        <v>136</v>
+      </c>
+      <c r="D206" t="s">
+        <v>220</v>
+      </c>
+      <c r="G206" t="s">
+        <v>430</v>
+      </c>
+      <c r="H206" t="s">
+        <v>449</v>
+      </c>
+      <c r="I206" t="s">
+        <v>450</v>
+      </c>
+      <c r="J206" t="s">
+        <v>450</v>
+      </c>
+      <c r="K206" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="C207" t="s">
+        <v>137</v>
+      </c>
+      <c r="D207" t="s">
+        <v>221</v>
+      </c>
+      <c r="G207" t="s">
+        <v>428</v>
+      </c>
+      <c r="H207" t="s">
+        <v>449</v>
+      </c>
+      <c r="I207" t="s">
+        <v>450</v>
+      </c>
+      <c r="J207" t="s">
+        <v>450</v>
+      </c>
+      <c r="K207" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="C208" t="s">
+        <v>138</v>
+      </c>
+      <c r="D208" t="s">
+        <v>222</v>
+      </c>
+      <c r="G208" t="s">
+        <v>431</v>
+      </c>
+      <c r="H208" t="s">
+        <v>449</v>
+      </c>
+      <c r="I208" t="s">
+        <v>450</v>
+      </c>
+      <c r="J208" t="s">
+        <v>450</v>
+      </c>
+      <c r="K208" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="C209" t="s">
+        <v>139</v>
+      </c>
+      <c r="D209" t="s">
+        <v>223</v>
+      </c>
+      <c r="G209" t="s">
+        <v>426</v>
+      </c>
+      <c r="H209" t="s">
+        <v>449</v>
+      </c>
+      <c r="I209" t="s">
+        <v>450</v>
+      </c>
+      <c r="J209" t="s">
+        <v>450</v>
+      </c>
+      <c r="K209" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="C210" t="s">
+        <v>140</v>
+      </c>
+      <c r="D210" t="s">
+        <v>224</v>
+      </c>
+      <c r="G210" t="s">
+        <v>429</v>
+      </c>
+      <c r="H210" t="s">
+        <v>449</v>
+      </c>
+      <c r="I210" t="s">
+        <v>450</v>
+      </c>
+      <c r="J210" t="s">
+        <v>450</v>
+      </c>
+      <c r="K210" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="C211" t="s">
+        <v>141</v>
+      </c>
+      <c r="D211" t="s">
+        <v>225</v>
+      </c>
+      <c r="G211" t="s">
+        <v>426</v>
+      </c>
+      <c r="H211" t="s">
+        <v>449</v>
+      </c>
+      <c r="I211" t="s">
+        <v>450</v>
+      </c>
+      <c r="J211" t="s">
+        <v>450</v>
+      </c>
+      <c r="K211" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="C212" t="s">
+        <v>142</v>
+      </c>
+      <c r="D212" t="s">
+        <v>226</v>
+      </c>
+      <c r="G212" t="s">
+        <v>432</v>
+      </c>
+      <c r="H212" t="s">
+        <v>449</v>
+      </c>
+      <c r="I212" t="s">
+        <v>450</v>
+      </c>
+      <c r="J212" t="s">
+        <v>450</v>
+      </c>
+      <c r="K212" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="C213" t="s">
+        <v>143</v>
+      </c>
+      <c r="D213" t="s">
+        <v>227</v>
+      </c>
+      <c r="G213" t="s">
+        <v>429</v>
+      </c>
+      <c r="H213" t="s">
+        <v>449</v>
+      </c>
+      <c r="I213" t="s">
+        <v>450</v>
+      </c>
+      <c r="J213" t="s">
+        <v>450</v>
+      </c>
+      <c r="K213" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="C214" t="s">
+        <v>144</v>
+      </c>
+      <c r="D214" t="s">
+        <v>228</v>
+      </c>
+      <c r="G214" t="s">
+        <v>433</v>
+      </c>
+      <c r="H214" t="s">
+        <v>449</v>
+      </c>
+      <c r="I214" t="s">
+        <v>450</v>
+      </c>
+      <c r="J214" t="s">
+        <v>450</v>
+      </c>
+      <c r="K214" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="C215" t="s">
+        <v>145</v>
+      </c>
+      <c r="D215" t="s">
+        <v>229</v>
+      </c>
+      <c r="G215" t="s">
+        <v>429</v>
+      </c>
+      <c r="H215" t="s">
+        <v>449</v>
+      </c>
+      <c r="J215" t="s">
+        <v>450</v>
+      </c>
+      <c r="K215" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="C216" t="s">
+        <v>146</v>
+      </c>
+      <c r="D216" t="s">
+        <v>230</v>
+      </c>
+      <c r="G216" t="s">
+        <v>426</v>
+      </c>
+      <c r="H216" t="s">
+        <v>449</v>
+      </c>
+      <c r="I216" t="s">
+        <v>450</v>
+      </c>
+      <c r="J216" t="s">
+        <v>450</v>
+      </c>
+      <c r="K216" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="C217" t="s">
+        <v>147</v>
+      </c>
+      <c r="D217" t="s">
+        <v>231</v>
+      </c>
+      <c r="G217" t="s">
+        <v>426</v>
+      </c>
+      <c r="H217" t="s">
+        <v>449</v>
+      </c>
+      <c r="I217" t="s">
+        <v>450</v>
+      </c>
+      <c r="J217" t="s">
+        <v>450</v>
+      </c>
+      <c r="K217" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="C218" t="s">
+        <v>148</v>
+      </c>
+      <c r="D218" t="s">
+        <v>232</v>
+      </c>
+      <c r="G218" t="s">
+        <v>426</v>
+      </c>
+      <c r="H218" t="s">
+        <v>449</v>
+      </c>
+      <c r="I218" t="s">
+        <v>450</v>
+      </c>
+      <c r="J218" t="s">
+        <v>450</v>
+      </c>
+      <c r="K218" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="C219" t="s">
+        <v>149</v>
+      </c>
+      <c r="D219" t="s">
+        <v>233</v>
+      </c>
+      <c r="G219" t="s">
+        <v>429</v>
+      </c>
+      <c r="H219" t="s">
+        <v>449</v>
+      </c>
+      <c r="I219" t="s">
+        <v>450</v>
+      </c>
+      <c r="J219" t="s">
+        <v>450</v>
+      </c>
+      <c r="K219" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="C220" t="s">
+        <v>150</v>
+      </c>
+      <c r="D220" t="s">
+        <v>234</v>
+      </c>
+      <c r="G220" t="s">
+        <v>428</v>
+      </c>
+      <c r="H220" t="s">
+        <v>449</v>
+      </c>
+      <c r="I220" t="s">
+        <v>450</v>
+      </c>
+      <c r="J220" t="s">
+        <v>450</v>
+      </c>
+      <c r="K220" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="C221" t="s">
+        <v>151</v>
+      </c>
+      <c r="D221" t="s">
+        <v>235</v>
+      </c>
+      <c r="G221" t="s">
+        <v>434</v>
+      </c>
+      <c r="H221" t="s">
+        <v>449</v>
+      </c>
+      <c r="J221" t="s">
+        <v>450</v>
+      </c>
+      <c r="K221" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="C222" t="s">
+        <v>152</v>
+      </c>
+      <c r="D222" t="s">
+        <v>236</v>
+      </c>
+      <c r="G222" t="s">
+        <v>428</v>
+      </c>
+      <c r="H222" t="s">
+        <v>449</v>
+      </c>
+      <c r="I222" t="s">
+        <v>450</v>
+      </c>
+      <c r="J222" t="s">
+        <v>450</v>
+      </c>
+      <c r="K222" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="C223" t="s">
+        <v>153</v>
+      </c>
+      <c r="D223" t="s">
+        <v>237</v>
+      </c>
+      <c r="G223" t="s">
+        <v>430</v>
+      </c>
+      <c r="H223" t="s">
+        <v>449</v>
+      </c>
+      <c r="I223" t="s">
+        <v>450</v>
+      </c>
+      <c r="J223" t="s">
+        <v>450</v>
+      </c>
+      <c r="K223" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="C224" t="s">
+        <v>154</v>
+      </c>
+      <c r="D224" t="s">
+        <v>238</v>
+      </c>
+      <c r="G224" t="s">
+        <v>429</v>
+      </c>
+      <c r="H224" t="s">
+        <v>449</v>
+      </c>
+      <c r="I224" t="s">
+        <v>450</v>
+      </c>
+      <c r="J224" t="s">
+        <v>450</v>
+      </c>
+      <c r="K224" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="C225" t="s">
+        <v>155</v>
+      </c>
+      <c r="D225" t="s">
+        <v>239</v>
+      </c>
+      <c r="G225" t="s">
+        <v>428</v>
+      </c>
+      <c r="H225" t="s">
+        <v>449</v>
+      </c>
+      <c r="I225" t="s">
+        <v>450</v>
+      </c>
+      <c r="J225" t="s">
+        <v>450</v>
+      </c>
+      <c r="K225" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="C226" t="s">
+        <v>156</v>
+      </c>
+      <c r="D226" t="s">
+        <v>240</v>
+      </c>
+      <c r="G226" t="s">
+        <v>435</v>
+      </c>
+      <c r="H226" t="s">
+        <v>449</v>
+      </c>
+      <c r="I226" t="s">
+        <v>450</v>
+      </c>
+      <c r="J226" t="s">
+        <v>450</v>
+      </c>
+      <c r="K226" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="C227" t="s">
+        <v>157</v>
+      </c>
+      <c r="D227" t="s">
+        <v>241</v>
+      </c>
+      <c r="G227" t="s">
+        <v>431</v>
+      </c>
+      <c r="H227" t="s">
+        <v>449</v>
+      </c>
+      <c r="I227" t="s">
+        <v>450</v>
+      </c>
+      <c r="J227" t="s">
+        <v>450</v>
+      </c>
+      <c r="K227" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="C228" t="s">
+        <v>158</v>
+      </c>
+      <c r="D228" t="s">
+        <v>242</v>
+      </c>
+      <c r="G228" t="s">
+        <v>426</v>
+      </c>
+      <c r="H228" t="s">
+        <v>449</v>
+      </c>
+      <c r="I228" t="s">
+        <v>450</v>
+      </c>
+      <c r="J228" t="s">
+        <v>450</v>
+      </c>
+      <c r="K228" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="C229" t="s">
+        <v>159</v>
+      </c>
+      <c r="D229" t="s">
+        <v>243</v>
+      </c>
+      <c r="G229" t="s">
+        <v>426</v>
+      </c>
+      <c r="H229" t="s">
+        <v>449</v>
+      </c>
+      <c r="I229" t="s">
+        <v>450</v>
+      </c>
+      <c r="J229" t="s">
+        <v>450</v>
+      </c>
+      <c r="K229" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="C230" t="s">
+        <v>160</v>
+      </c>
+      <c r="D230" t="s">
+        <v>244</v>
+      </c>
+      <c r="G230" t="s">
+        <v>426</v>
+      </c>
+      <c r="H230" t="s">
+        <v>449</v>
+      </c>
+      <c r="I230" t="s">
+        <v>450</v>
+      </c>
+      <c r="J230" t="s">
+        <v>450</v>
+      </c>
+      <c r="K230" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="C231" t="s">
+        <v>161</v>
+      </c>
+      <c r="D231" t="s">
+        <v>245</v>
+      </c>
+      <c r="G231" t="s">
+        <v>436</v>
+      </c>
+      <c r="H231" t="s">
+        <v>449</v>
+      </c>
+      <c r="I231" t="s">
+        <v>450</v>
+      </c>
+      <c r="J231" t="s">
+        <v>450</v>
+      </c>
+      <c r="K231" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="C232" t="s">
+        <v>162</v>
+      </c>
+      <c r="D232" t="s">
+        <v>246</v>
+      </c>
+      <c r="G232" t="s">
+        <v>428</v>
+      </c>
+      <c r="H232" t="s">
+        <v>449</v>
+      </c>
+      <c r="I232" t="s">
+        <v>450</v>
+      </c>
+      <c r="J232" t="s">
+        <v>450</v>
+      </c>
+      <c r="K232" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="C233" t="s">
+        <v>163</v>
+      </c>
+      <c r="D233" t="s">
+        <v>247</v>
+      </c>
+      <c r="G233" t="s">
+        <v>428</v>
+      </c>
+      <c r="H233" t="s">
+        <v>449</v>
+      </c>
+      <c r="I233" t="s">
+        <v>450</v>
+      </c>
+      <c r="J233" t="s">
+        <v>450</v>
+      </c>
+      <c r="K233" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="C234" t="s">
+        <v>164</v>
+      </c>
+      <c r="D234" t="s">
+        <v>248</v>
+      </c>
+      <c r="G234" t="s">
+        <v>431</v>
+      </c>
+      <c r="H234" t="s">
+        <v>449</v>
+      </c>
+      <c r="I234" t="s">
+        <v>450</v>
+      </c>
+      <c r="J234" t="s">
+        <v>450</v>
+      </c>
+      <c r="K234" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="C235" t="s">
+        <v>165</v>
+      </c>
+      <c r="D235" t="s">
+        <v>249</v>
+      </c>
+      <c r="G235" t="s">
+        <v>436</v>
+      </c>
+      <c r="H235" t="s">
+        <v>449</v>
+      </c>
+      <c r="I235" t="s">
+        <v>450</v>
+      </c>
+      <c r="J235" t="s">
+        <v>450</v>
+      </c>
+      <c r="K235" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="C236" t="s">
+        <v>166</v>
+      </c>
+      <c r="D236" t="s">
+        <v>250</v>
+      </c>
+      <c r="G236" t="s">
+        <v>437</v>
+      </c>
+      <c r="H236" t="s">
+        <v>449</v>
+      </c>
+      <c r="I236" t="s">
+        <v>450</v>
+      </c>
+      <c r="J236" t="s">
+        <v>450</v>
+      </c>
+      <c r="K236" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="C237" t="s">
+        <v>167</v>
+      </c>
+      <c r="D237" t="s">
+        <v>251</v>
+      </c>
+      <c r="G237" t="s">
+        <v>436</v>
+      </c>
+      <c r="H237" t="s">
+        <v>449</v>
+      </c>
+      <c r="I237" t="s">
+        <v>450</v>
+      </c>
+      <c r="J237" t="s">
+        <v>450</v>
+      </c>
+      <c r="K237" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="C238" t="s">
+        <v>168</v>
+      </c>
+      <c r="D238" t="s">
+        <v>252</v>
+      </c>
+      <c r="G238" t="s">
+        <v>432</v>
+      </c>
+      <c r="H238" t="s">
+        <v>449</v>
+      </c>
+      <c r="I238" t="s">
+        <v>450</v>
+      </c>
+      <c r="J238" t="s">
+        <v>450</v>
+      </c>
+      <c r="K238" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="C239" t="s">
+        <v>169</v>
+      </c>
+      <c r="D239" t="s">
+        <v>253</v>
+      </c>
+      <c r="G239" t="s">
+        <v>438</v>
+      </c>
+      <c r="H239" t="s">
+        <v>449</v>
+      </c>
+      <c r="J239" t="s">
+        <v>450</v>
+      </c>
+      <c r="K239" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="C240" t="s">
+        <v>170</v>
+      </c>
+      <c r="D240" t="s">
+        <v>254</v>
+      </c>
+      <c r="G240" t="s">
+        <v>436</v>
+      </c>
+      <c r="H240" t="s">
+        <v>449</v>
+      </c>
+      <c r="I240" t="s">
+        <v>450</v>
+      </c>
+      <c r="J240" t="s">
+        <v>450</v>
+      </c>
+      <c r="K240" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="C241" t="s">
+        <v>171</v>
+      </c>
+      <c r="D241" t="s">
+        <v>255</v>
+      </c>
+      <c r="G241" t="s">
+        <v>432</v>
+      </c>
+      <c r="H241" t="s">
+        <v>449</v>
+      </c>
+      <c r="I241" t="s">
+        <v>450</v>
+      </c>
+      <c r="J241" t="s">
+        <v>450</v>
+      </c>
+      <c r="K241" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="C242" t="s">
+        <v>172</v>
+      </c>
+      <c r="D242" t="s">
+        <v>256</v>
+      </c>
+      <c r="G242" t="s">
+        <v>432</v>
+      </c>
+      <c r="H242" t="s">
+        <v>449</v>
+      </c>
+      <c r="I242" t="s">
+        <v>450</v>
+      </c>
+      <c r="J242" t="s">
+        <v>450</v>
+      </c>
+      <c r="K242" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="C243" t="s">
+        <v>173</v>
+      </c>
+      <c r="D243" t="s">
+        <v>257</v>
+      </c>
+      <c r="G243" t="s">
+        <v>432</v>
+      </c>
+      <c r="H243" t="s">
+        <v>449</v>
+      </c>
+      <c r="I243" t="s">
+        <v>450</v>
+      </c>
+      <c r="J243" t="s">
+        <v>450</v>
+      </c>
+      <c r="K243" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="C244" t="s">
+        <v>174</v>
+      </c>
+      <c r="D244" t="s">
+        <v>258</v>
+      </c>
+      <c r="G244" t="s">
+        <v>428</v>
+      </c>
+      <c r="H244" t="s">
+        <v>449</v>
+      </c>
+      <c r="I244" t="s">
+        <v>450</v>
+      </c>
+      <c r="J244" t="s">
+        <v>450</v>
+      </c>
+      <c r="K244" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="C245" t="s">
+        <v>175</v>
+      </c>
+      <c r="D245" t="s">
+        <v>259</v>
+      </c>
+      <c r="G245" t="s">
+        <v>428</v>
+      </c>
+      <c r="H245" t="s">
+        <v>449</v>
+      </c>
+      <c r="I245" t="s">
+        <v>450</v>
+      </c>
+      <c r="J245" t="s">
+        <v>450</v>
+      </c>
+      <c r="K245" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="C246" t="s">
+        <v>176</v>
+      </c>
+      <c r="D246" t="s">
+        <v>260</v>
+      </c>
+      <c r="G246" t="s">
+        <v>439</v>
+      </c>
+      <c r="H246" t="s">
+        <v>449</v>
+      </c>
+      <c r="I246" t="s">
+        <v>450</v>
+      </c>
+      <c r="J246" t="s">
+        <v>450</v>
+      </c>
+      <c r="K246" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="C247" t="s">
+        <v>177</v>
+      </c>
+      <c r="D247" t="s">
+        <v>261</v>
+      </c>
+      <c r="G247" t="s">
+        <v>426</v>
+      </c>
+      <c r="H247" t="s">
+        <v>449</v>
+      </c>
+      <c r="I247" t="s">
+        <v>450</v>
+      </c>
+      <c r="J247" t="s">
+        <v>450</v>
+      </c>
+      <c r="K247" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="C248" t="s">
+        <v>178</v>
+      </c>
+      <c r="D248" t="s">
+        <v>262</v>
+      </c>
+      <c r="G248" t="s">
+        <v>426</v>
+      </c>
+      <c r="H248" t="s">
+        <v>449</v>
+      </c>
+      <c r="I248" t="s">
+        <v>450</v>
+      </c>
+      <c r="J248" t="s">
+        <v>450</v>
+      </c>
+      <c r="K248" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="C249" t="s">
+        <v>179</v>
+      </c>
+      <c r="D249" t="s">
+        <v>263</v>
+      </c>
+      <c r="G249" t="s">
+        <v>440</v>
+      </c>
+      <c r="H249" t="s">
+        <v>449</v>
+      </c>
+      <c r="I249" t="s">
+        <v>450</v>
+      </c>
+      <c r="J249" t="s">
+        <v>450</v>
+      </c>
+      <c r="K249" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="C250" t="s">
+        <v>180</v>
+      </c>
+      <c r="D250" t="s">
+        <v>264</v>
+      </c>
+      <c r="G250" t="s">
+        <v>426</v>
+      </c>
+      <c r="H250" t="s">
+        <v>449</v>
+      </c>
+      <c r="I250" t="s">
+        <v>450</v>
+      </c>
+      <c r="J250" t="s">
+        <v>450</v>
+      </c>
+      <c r="K250" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="C251" t="s">
+        <v>181</v>
+      </c>
+      <c r="D251" t="s">
+        <v>265</v>
+      </c>
+      <c r="G251" t="s">
+        <v>428</v>
+      </c>
+      <c r="H251" t="s">
+        <v>449</v>
+      </c>
+      <c r="I251" t="s">
+        <v>450</v>
+      </c>
+      <c r="J251" t="s">
+        <v>450</v>
+      </c>
+      <c r="K251" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="C252" t="s">
+        <v>182</v>
+      </c>
+      <c r="D252" t="s">
+        <v>266</v>
+      </c>
+      <c r="G252" t="s">
+        <v>429</v>
+      </c>
+      <c r="H252" t="s">
+        <v>449</v>
+      </c>
+      <c r="I252" t="s">
+        <v>450</v>
+      </c>
+      <c r="J252" t="s">
+        <v>450</v>
+      </c>
+      <c r="K252" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="C253" t="s">
+        <v>183</v>
+      </c>
+      <c r="D253" t="s">
+        <v>267</v>
+      </c>
+      <c r="G253" t="s">
+        <v>437</v>
+      </c>
+      <c r="H253" t="s">
+        <v>449</v>
+      </c>
+      <c r="I253" t="s">
+        <v>450</v>
+      </c>
+      <c r="J253" t="s">
+        <v>450</v>
+      </c>
+      <c r="K253" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="C254" t="s">
+        <v>184</v>
+      </c>
+      <c r="D254" t="s">
+        <v>268</v>
+      </c>
+      <c r="G254" t="s">
+        <v>426</v>
+      </c>
+      <c r="H254" t="s">
+        <v>449</v>
+      </c>
+      <c r="I254" t="s">
+        <v>450</v>
+      </c>
+      <c r="J254" t="s">
+        <v>450</v>
+      </c>
+      <c r="K254" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="C255" t="s">
+        <v>185</v>
+      </c>
+      <c r="D255" t="s">
+        <v>269</v>
+      </c>
+      <c r="G255" t="s">
+        <v>434</v>
+      </c>
+      <c r="H255" t="s">
+        <v>449</v>
+      </c>
+      <c r="J255" t="s">
+        <v>450</v>
+      </c>
+      <c r="K255" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="C256" t="s">
+        <v>186</v>
+      </c>
+      <c r="D256" t="s">
+        <v>270</v>
+      </c>
+      <c r="G256" t="s">
+        <v>439</v>
+      </c>
+      <c r="H256" t="s">
+        <v>449</v>
+      </c>
+      <c r="I256" t="s">
+        <v>450</v>
+      </c>
+      <c r="J256" t="s">
+        <v>450</v>
+      </c>
+      <c r="K256" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="C257" t="s">
+        <v>187</v>
+      </c>
+      <c r="D257" t="s">
+        <v>271</v>
+      </c>
+      <c r="G257" t="s">
+        <v>440</v>
+      </c>
+      <c r="H257" t="s">
+        <v>449</v>
+      </c>
+      <c r="I257" t="s">
+        <v>450</v>
+      </c>
+      <c r="J257" t="s">
+        <v>450</v>
+      </c>
+      <c r="K257" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="C258" t="s">
+        <v>188</v>
+      </c>
+      <c r="D258" t="s">
+        <v>272</v>
+      </c>
+      <c r="G258" t="s">
+        <v>436</v>
+      </c>
+      <c r="H258" t="s">
+        <v>449</v>
+      </c>
+      <c r="I258" t="s">
+        <v>450</v>
+      </c>
+      <c r="J258" t="s">
+        <v>450</v>
+      </c>
+      <c r="K258" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="C259" t="s">
+        <v>189</v>
+      </c>
+      <c r="D259" t="s">
+        <v>273</v>
+      </c>
+      <c r="G259" t="s">
+        <v>428</v>
+      </c>
+      <c r="H259" t="s">
+        <v>449</v>
+      </c>
+      <c r="I259" t="s">
+        <v>450</v>
+      </c>
+      <c r="J259" t="s">
+        <v>450</v>
+      </c>
+      <c r="K259" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="C260" t="s">
+        <v>190</v>
+      </c>
+      <c r="D260" t="s">
+        <v>274</v>
+      </c>
+      <c r="G260" t="s">
+        <v>441</v>
+      </c>
+      <c r="H260" t="s">
+        <v>449</v>
+      </c>
+      <c r="I260" t="s">
+        <v>450</v>
+      </c>
+      <c r="J260" t="s">
+        <v>450</v>
+      </c>
+      <c r="K260" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="C261" t="s">
+        <v>191</v>
+      </c>
+      <c r="D261" t="s">
+        <v>275</v>
+      </c>
+      <c r="G261" t="s">
+        <v>442</v>
+      </c>
+      <c r="H261" t="s">
+        <v>449</v>
+      </c>
+      <c r="I261" t="s">
+        <v>450</v>
+      </c>
+      <c r="J261" t="s">
+        <v>450</v>
+      </c>
+      <c r="K261" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="C262" t="s">
+        <v>192</v>
+      </c>
+      <c r="D262" t="s">
+        <v>283</v>
+      </c>
+      <c r="G262" t="s">
+        <v>429</v>
+      </c>
+      <c r="H262" t="s">
+        <v>449</v>
+      </c>
+      <c r="I262" t="s">
+        <v>450</v>
+      </c>
+      <c r="J262" t="s">
+        <v>450</v>
+      </c>
+      <c r="K262" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="C263" t="s">
+        <v>193</v>
+      </c>
+      <c r="D263" t="s">
+        <v>415</v>
+      </c>
+      <c r="G263" t="s">
+        <v>437</v>
+      </c>
+      <c r="H263" t="s">
+        <v>449</v>
+      </c>
+      <c r="I263" t="s">
+        <v>450</v>
+      </c>
+      <c r="J263" t="s">
+        <v>450</v>
+      </c>
+      <c r="K263" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="C264" t="s">
+        <v>194</v>
+      </c>
+      <c r="D264" t="s">
+        <v>279</v>
+      </c>
+      <c r="G264" t="s">
+        <v>426</v>
+      </c>
+      <c r="H264" t="s">
+        <v>449</v>
+      </c>
+      <c r="I264" t="s">
+        <v>451</v>
+      </c>
+      <c r="J264" t="s">
+        <v>451</v>
+      </c>
+      <c r="K264" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="C265" t="s">
+        <v>195</v>
+      </c>
+      <c r="D265" t="s">
+        <v>280</v>
+      </c>
+      <c r="G265" t="s">
+        <v>439</v>
+      </c>
+      <c r="H265" t="s">
+        <v>449</v>
+      </c>
+      <c r="I265" t="s">
+        <v>451</v>
+      </c>
+      <c r="J265" t="s">
+        <v>451</v>
+      </c>
+      <c r="K265" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="C266" t="s">
+        <v>196</v>
+      </c>
+      <c r="D266" t="s">
+        <v>281</v>
+      </c>
+      <c r="G266" t="s">
+        <v>438</v>
+      </c>
+      <c r="H266" t="s">
+        <v>449</v>
+      </c>
+      <c r="J266" t="s">
+        <v>451</v>
+      </c>
+      <c r="K266" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="C267" t="s">
+        <v>197</v>
+      </c>
+      <c r="D267" t="s">
+        <v>282</v>
+      </c>
+      <c r="G267" t="s">
+        <v>443</v>
+      </c>
+      <c r="H267" t="s">
+        <v>449</v>
+      </c>
+      <c r="I267" t="s">
+        <v>451</v>
+      </c>
+      <c r="J267" t="s">
+        <v>451</v>
+      </c>
+      <c r="K267" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="C268" t="s">
+        <v>198</v>
+      </c>
+      <c r="D268" t="s">
+        <v>284</v>
+      </c>
+      <c r="G268" t="s">
+        <v>442</v>
+      </c>
+      <c r="H268" t="s">
+        <v>449</v>
+      </c>
+      <c r="I268" t="s">
+        <v>451</v>
+      </c>
+      <c r="J268" t="s">
+        <v>451</v>
+      </c>
+      <c r="K268" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="C269" t="s">
+        <v>199</v>
+      </c>
+      <c r="D269" t="s">
+        <v>285</v>
+      </c>
+      <c r="G269" t="s">
+        <v>438</v>
+      </c>
+      <c r="H269" t="s">
+        <v>449</v>
+      </c>
+      <c r="J269" t="s">
+        <v>451</v>
+      </c>
+      <c r="K269" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="C270" t="s">
+        <v>200</v>
+      </c>
+      <c r="D270" t="s">
+        <v>286</v>
+      </c>
+      <c r="G270" t="s">
+        <v>438</v>
+      </c>
+      <c r="H270" t="s">
+        <v>449</v>
+      </c>
+      <c r="J270" t="s">
+        <v>451</v>
+      </c>
+      <c r="K270" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="C271" t="s">
+        <v>201</v>
+      </c>
+      <c r="D271" t="s">
+        <v>287</v>
+      </c>
+      <c r="G271" t="s">
+        <v>438</v>
+      </c>
+      <c r="H271" t="s">
+        <v>449</v>
+      </c>
+      <c r="J271" t="s">
+        <v>451</v>
+      </c>
+      <c r="K271" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="C272" t="s">
+        <v>202</v>
+      </c>
+      <c r="D272" t="s">
+        <v>288</v>
+      </c>
+      <c r="G272" t="s">
+        <v>438</v>
+      </c>
+      <c r="H272" t="s">
+        <v>449</v>
+      </c>
+      <c r="J272" t="s">
+        <v>451</v>
+      </c>
+      <c r="K272" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="C273" t="s">
+        <v>203</v>
+      </c>
+      <c r="D273" t="s">
+        <v>289</v>
+      </c>
+      <c r="G273" t="s">
+        <v>436</v>
+      </c>
+      <c r="H273" t="s">
+        <v>449</v>
+      </c>
+      <c r="I273" t="s">
+        <v>451</v>
+      </c>
+      <c r="J273" t="s">
+        <v>451</v>
+      </c>
+      <c r="K273" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="C274" t="s">
+        <v>204</v>
+      </c>
+      <c r="D274" t="s">
+        <v>290</v>
+      </c>
+      <c r="G274" t="s">
+        <v>426</v>
+      </c>
+      <c r="H274" t="s">
+        <v>449</v>
+      </c>
+      <c r="I274" t="s">
+        <v>451</v>
+      </c>
+      <c r="J274" t="s">
+        <v>451</v>
+      </c>
+      <c r="K274" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="C275" t="s">
+        <v>205</v>
+      </c>
+      <c r="D275" t="s">
+        <v>291</v>
+      </c>
+      <c r="G275" t="s">
+        <v>443</v>
+      </c>
+      <c r="H275" t="s">
+        <v>449</v>
+      </c>
+      <c r="I275" t="s">
+        <v>451</v>
+      </c>
+      <c r="J275" t="s">
+        <v>451</v>
+      </c>
+      <c r="K275" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="C276" t="s">
+        <v>206</v>
+      </c>
+      <c r="D276" t="s">
+        <v>416</v>
+      </c>
+      <c r="G276" t="s">
+        <v>438</v>
+      </c>
+      <c r="H276" t="s">
+        <v>449</v>
+      </c>
+      <c r="J276" t="s">
+        <v>451</v>
+      </c>
+      <c r="K276" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="C277" t="s">
+        <v>207</v>
+      </c>
+      <c r="D277" t="s">
+        <v>417</v>
+      </c>
+      <c r="G277" t="s">
+        <v>437</v>
+      </c>
+      <c r="H277" t="s">
+        <v>449</v>
+      </c>
+      <c r="I277" t="s">
+        <v>451</v>
+      </c>
+      <c r="J277" t="s">
+        <v>451</v>
+      </c>
+      <c r="K277" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="C278" t="s">
+        <v>208</v>
+      </c>
+      <c r="D278" t="s">
+        <v>418</v>
+      </c>
+      <c r="G278" t="s">
+        <v>430</v>
+      </c>
+      <c r="H278" t="s">
+        <v>449</v>
+      </c>
+      <c r="J278" t="s">
+        <v>451</v>
+      </c>
+      <c r="K278" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="C279" t="s">
+        <v>209</v>
+      </c>
+      <c r="D279" t="s">
+        <v>419</v>
+      </c>
+      <c r="G279" t="s">
+        <v>439</v>
+      </c>
+      <c r="H279" t="s">
+        <v>449</v>
+      </c>
+      <c r="K279" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="C280" t="s">
+        <v>210</v>
+      </c>
+      <c r="D280" t="s">
+        <v>420</v>
+      </c>
+      <c r="G280" t="s">
+        <v>436</v>
+      </c>
+      <c r="H280" t="s">
+        <v>449</v>
+      </c>
+      <c r="K280" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="C281" t="s">
+        <v>211</v>
+      </c>
+      <c r="D281" t="s">
+        <v>421</v>
+      </c>
+      <c r="G281" t="s">
+        <v>440</v>
+      </c>
+      <c r="H281" t="s">
+        <v>449</v>
+      </c>
+      <c r="K281" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="C282" t="s">
+        <v>212</v>
+      </c>
+      <c r="D282" t="s">
+        <v>422</v>
+      </c>
+      <c r="G282" t="s">
+        <v>439</v>
+      </c>
+      <c r="H282" t="s">
+        <v>449</v>
+      </c>
+      <c r="K282" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="C283" t="s">
+        <v>213</v>
+      </c>
+      <c r="D283" t="s">
+        <v>423</v>
+      </c>
+      <c r="G283" t="s">
+        <v>432</v>
+      </c>
+      <c r="H283" t="s">
+        <v>449</v>
+      </c>
+      <c r="K283" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="C284" t="s">
+        <v>214</v>
+      </c>
+      <c r="D284" t="s">
+        <v>424</v>
+      </c>
+      <c r="G284" t="s">
+        <v>428</v>
+      </c>
+      <c r="H284" t="s">
+        <v>449</v>
+      </c>
+      <c r="K284" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="C285" t="s">
+        <v>215</v>
+      </c>
+      <c r="D285" t="s">
+        <v>425</v>
+      </c>
+      <c r="G285" t="s">
+        <v>437</v>
+      </c>
+      <c r="H285" t="s">
+        <v>449</v>
+      </c>
+      <c r="K285" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="C286" t="s">
+        <v>202</v>
+      </c>
+      <c r="D286" t="s">
+        <v>288</v>
+      </c>
+      <c r="G286" t="s">
+        <v>438</v>
+      </c>
+      <c r="H286" t="s">
+        <v>449</v>
+      </c>
+      <c r="K286" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
